--- a/Data/Whole_report.xlsx
+++ b/Data/Whole_report.xlsx
@@ -14146,16 +14146,16 @@
         <v>45.88</v>
       </c>
       <c r="D2">
-        <v>10.16857905510894</v>
+        <v>8.348219539665257</v>
       </c>
       <c r="E2">
-        <v>6.200000000000006</v>
+        <v>10.93392866668865</v>
       </c>
       <c r="F2">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G2">
-        <v>136.5860497826938</v>
+        <v>94.27808344519859</v>
       </c>
       <c r="H2">
         <v>8.357628655200799</v>
@@ -14169,16 +14169,16 @@
         <v>68.25</v>
       </c>
       <c r="D3">
-        <v>10.64894360957932</v>
+        <v>13.57822162405493</v>
       </c>
       <c r="E3">
-        <v>9.439809320108118</v>
+        <v>11.63640551328339</v>
       </c>
       <c r="F3">
-        <v>17.46049604742133</v>
+        <v>13.61270592502562</v>
       </c>
       <c r="G3">
-        <v>49.79762926611875</v>
+        <v>33.06422798134015</v>
       </c>
       <c r="H3">
         <v>10.16783408016323</v>
@@ -14192,16 +14192,16 @@
         <v>74.22</v>
       </c>
       <c r="D4">
-        <v>11.79406630471442</v>
+        <v>16.40483876215822</v>
       </c>
       <c r="E4">
-        <v>30.30594001181946</v>
+        <v>39.1191998835489</v>
       </c>
       <c r="F4">
-        <v>53.99999999999996</v>
+        <v>41.77776105848265</v>
       </c>
       <c r="G4">
-        <v>37.60639477140833</v>
+        <v>24.14394226620668</v>
       </c>
       <c r="H4">
         <v>9.099150586900123</v>
@@ -14215,16 +14215,16 @@
         <v>40.43</v>
       </c>
       <c r="D5">
-        <v>6.400000000000005</v>
+        <v>18.10777740395787</v>
       </c>
       <c r="E5">
-        <v>23.75289456045307</v>
+        <v>27.00098759376793</v>
       </c>
       <c r="F5">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G5">
-        <v>210.3677833456047</v>
+        <v>232.135864004361</v>
       </c>
       <c r="H5">
         <v>5.400000000000007</v>
@@ -14238,16 +14238,16 @@
         <v>41.84</v>
       </c>
       <c r="D6">
-        <v>4.774934554525331</v>
+        <v>6.445819029508369</v>
       </c>
       <c r="E6">
-        <v>11.77285012220916</v>
+        <v>10.81709259959937</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>8.763690235646591</v>
       </c>
       <c r="G6">
-        <v>1806.439870854473</v>
+        <v>1553.892060285533</v>
       </c>
       <c r="H6">
         <v>12.02932641985575</v>
@@ -14261,16 +14261,16 @@
         <v>78.98</v>
       </c>
       <c r="D7">
-        <v>8.010617953691206</v>
+        <v>8.559829300004317</v>
       </c>
       <c r="E7">
-        <v>8.80000000000001</v>
+        <v>8.952484838257234</v>
       </c>
       <c r="F7">
-        <v>3.628445763382971</v>
+        <v>9.594029676183567</v>
       </c>
       <c r="G7">
-        <v>87.8781894943434</v>
+        <v>72.42044935848455</v>
       </c>
       <c r="H7">
         <v>10.44078535706618</v>
@@ -14284,16 +14284,16 @@
         <v>83.8</v>
       </c>
       <c r="D8">
-        <v>9.507365565707479</v>
+        <v>8.577462151922193</v>
       </c>
       <c r="E8">
-        <v>7.923383115816136</v>
+        <v>12.94607645983885</v>
       </c>
       <c r="F8">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G8">
-        <v>87.8781894943434</v>
+        <v>90.60074694691463</v>
       </c>
       <c r="H8">
         <v>13.43978670296414</v>
@@ -14307,16 +14307,16 @@
         <v>35.11</v>
       </c>
       <c r="D9">
-        <v>3.810511776651534</v>
+        <v>4.88304595104742</v>
       </c>
       <c r="E9">
-        <v>11.59310139695156</v>
+        <v>37.85479860953488</v>
       </c>
       <c r="F9">
-        <v>123.4503948960878</v>
+        <v>19.15675267797593</v>
       </c>
       <c r="G9">
-        <v>119.7725845237585</v>
+        <v>98.85010880741382</v>
       </c>
       <c r="H9">
         <v>3.613682499024424</v>
@@ -14330,16 +14330,16 @@
         <v>37.49</v>
       </c>
       <c r="D10">
-        <v>11.79406630471442</v>
+        <v>11.21362273973807</v>
       </c>
       <c r="E10">
-        <v>10.69579356569676</v>
+        <v>10.18709611565029</v>
       </c>
       <c r="F10">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G10">
-        <v>43.60594764939039</v>
+        <v>71.08054350086495</v>
       </c>
       <c r="H10">
         <v>12.68265141077003</v>
@@ -14353,16 +14353,16 @@
         <v>49.88</v>
       </c>
       <c r="D11">
-        <v>31.84336665618134</v>
+        <v>13.21796244383891</v>
       </c>
       <c r="E11">
-        <v>43.40506882842148</v>
+        <v>14.26086421935677</v>
       </c>
       <c r="F11">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G11">
-        <v>266.8955300425458</v>
+        <v>229.5985118220359</v>
       </c>
       <c r="H11">
         <v>7.928370991412026</v>
@@ -14376,16 +14376,16 @@
         <v>27.89</v>
       </c>
       <c r="D12">
-        <v>10.94988584415382</v>
+        <v>11.67804031279947</v>
       </c>
       <c r="E12">
-        <v>10.89954127475098</v>
+        <v>48.92740163040762</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>5.604414027174668</v>
       </c>
       <c r="G12">
-        <v>234.8694895764424</v>
+        <v>136.758137130955</v>
       </c>
       <c r="H12">
         <v>4.141983848540939</v>
@@ -14399,16 +14399,16 @@
         <v>36.18</v>
       </c>
       <c r="D13">
-        <v>243.4255533012097</v>
+        <v>659.0503940387767</v>
       </c>
       <c r="E13">
-        <v>1219.344085974096</v>
+        <v>521.5333634731786</v>
       </c>
       <c r="F13">
-        <v>648.4905550584367</v>
+        <v>676.2404240692639</v>
       </c>
       <c r="G13">
-        <v>1379.494459296028</v>
+        <v>874.3530481489213</v>
       </c>
       <c r="H13">
         <v>492.6368056823282</v>
@@ -14422,16 +14422,16 @@
         <v>99.43000000000001</v>
       </c>
       <c r="D14">
-        <v>9.499473669630346</v>
+        <v>20.35296223817308</v>
       </c>
       <c r="E14">
-        <v>14.17391971192158</v>
+        <v>32.33441555696962</v>
       </c>
       <c r="F14">
-        <v>0.9000000000000007</v>
+        <v>1.448637334282607</v>
       </c>
       <c r="G14">
-        <v>8.257075596713779</v>
+        <v>8.633299088705373</v>
       </c>
       <c r="H14">
         <v>16.53223450611422</v>
@@ -14445,16 +14445,16 @@
         <v>80.09999999999999</v>
       </c>
       <c r="D15">
-        <v>25.60273422898422</v>
+        <v>33.43759547693858</v>
       </c>
       <c r="E15">
-        <v>11.13552872566005</v>
+        <v>43.44760069834715</v>
       </c>
       <c r="F15">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G15">
-        <v>17.18303531791149</v>
+        <v>15.73287559097672</v>
       </c>
       <c r="H15">
         <v>31.96289971147482</v>
@@ -14468,16 +14468,16 @@
         <v>31.98</v>
       </c>
       <c r="D16">
-        <v>8.16088230524127</v>
+        <v>8.530859846390886</v>
       </c>
       <c r="E16">
-        <v>9.581231653602815</v>
+        <v>20.88530985648864</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3.597841408157394</v>
       </c>
       <c r="G16">
-        <v>2862.08572742822</v>
+        <v>2358.324328887359</v>
       </c>
       <c r="H16">
         <v>4.529127924299133</v>
@@ -14491,16 +14491,16 @@
         <v>24.63</v>
       </c>
       <c r="D17">
-        <v>2852.630365119178</v>
+        <v>1479.423437399554</v>
       </c>
       <c r="E17">
-        <v>1031</v>
+        <v>1481.428658001038</v>
       </c>
       <c r="F17">
-        <v>102.469507659596</v>
+        <v>343.9548111500075</v>
       </c>
       <c r="G17">
-        <v>16843.39457221308</v>
+        <v>7985.754747999698</v>
       </c>
       <c r="H17">
         <v>4117.998967168915</v>
@@ -14514,16 +14514,16 @@
         <v>34.35</v>
       </c>
       <c r="D18">
-        <v>2950.237278593034</v>
+        <v>1681.944584953241</v>
       </c>
       <c r="E18">
-        <v>300.5162225238429</v>
+        <v>2890.205397228704</v>
       </c>
       <c r="F18">
-        <v>865.072565083856</v>
+        <v>803.0063712974891</v>
       </c>
       <c r="G18">
-        <v>16001.2324351413</v>
+        <v>12855.96137023041</v>
       </c>
       <c r="H18">
         <v>2110.336218892875</v>
@@ -14537,16 +14537,16 @@
         <v>47.5</v>
       </c>
       <c r="D19">
-        <v>2950.237278593034</v>
+        <v>1963.484234400799</v>
       </c>
       <c r="E19">
-        <v>962.2785459522631</v>
+        <v>3573.73546360212</v>
       </c>
       <c r="F19">
-        <v>865.072565083856</v>
+        <v>803.0063712974891</v>
       </c>
       <c r="G19">
-        <v>1101.210290328708</v>
+        <v>1357.289340277027</v>
       </c>
       <c r="H19">
         <v>2110.336218892875</v>
@@ -14560,16 +14560,16 @@
         <v>49.93</v>
       </c>
       <c r="D20">
-        <v>2950.237278593034</v>
+        <v>1927.314404252576</v>
       </c>
       <c r="E20">
-        <v>8417.999999999993</v>
+        <v>4613.025310955756</v>
       </c>
       <c r="F20">
-        <v>865.072565083856</v>
+        <v>803.0063712974891</v>
       </c>
       <c r="G20">
-        <v>3436.656217680745</v>
+        <v>3297.344790348589</v>
       </c>
       <c r="H20">
         <v>2110.336218892875</v>
@@ -14583,16 +14583,16 @@
         <v>79.76000000000001</v>
       </c>
       <c r="D21">
-        <v>4247.64581856821</v>
+        <v>2136.903091317962</v>
       </c>
       <c r="E21">
-        <v>2123.676058159531</v>
+        <v>1098.358401009114</v>
       </c>
       <c r="F21">
-        <v>134.3874994186586</v>
+        <v>357.2042612142708</v>
       </c>
       <c r="G21">
-        <v>1163.636250388176</v>
+        <v>1306.303930445186</v>
       </c>
       <c r="H21">
         <v>996.8633158999128</v>
@@ -14606,16 +14606,16 @@
         <v>89.15000000000001</v>
       </c>
       <c r="D22">
-        <v>884.9999999999993</v>
+        <v>310.5800928168753</v>
       </c>
       <c r="E22">
-        <v>1552.249979867932</v>
+        <v>555.6391556984747</v>
       </c>
       <c r="F22">
-        <v>1636.66806260019</v>
+        <v>767.0846491904653</v>
       </c>
       <c r="G22">
-        <v>4060.578228834959</v>
+        <v>4112.733252265418</v>
       </c>
       <c r="H22">
         <v>61.65075930899678</v>
@@ -14629,16 +14629,16 @@
         <v>54.91</v>
       </c>
       <c r="D23">
-        <v>14041.46277992433</v>
+        <v>2344.489014922811</v>
       </c>
       <c r="E23">
-        <v>336.7640123291084</v>
+        <v>2967.254071698359</v>
       </c>
       <c r="F23">
-        <v>3299.572666273474</v>
+        <v>1689.358638080361</v>
       </c>
       <c r="G23">
-        <v>13363.66894155839</v>
+        <v>12858.63395481126</v>
       </c>
       <c r="H23">
         <v>4524.591035530016</v>
@@ -14652,16 +14652,16 @@
         <v>52.98</v>
       </c>
       <c r="D24">
-        <v>9.724710792614877</v>
+        <v>28.94669715970868</v>
       </c>
       <c r="E24">
-        <v>727.7252228691813</v>
+        <v>615.9671389296543</v>
       </c>
       <c r="F24">
-        <v>1015.874007936023</v>
+        <v>206.42394985552</v>
       </c>
       <c r="G24">
-        <v>4830.54090079251</v>
+        <v>1822.103010694461</v>
       </c>
       <c r="H24">
         <v>10.12568049076748</v>
@@ -14675,16 +14675,16 @@
         <v>38.34</v>
       </c>
       <c r="D25">
-        <v>9.499999999999996</v>
+        <v>9.804496174534357</v>
       </c>
       <c r="E25">
-        <v>24.49489742783179</v>
+        <v>10.99495798343561</v>
       </c>
       <c r="F25">
-        <v>6.320601237224211</v>
+        <v>7.361318131006248</v>
       </c>
       <c r="G25">
-        <v>2487.596754173851</v>
+        <v>2399.574215712501</v>
       </c>
       <c r="H25">
         <v>2.976257030638661</v>
@@ -14698,16 +14698,16 @@
         <v>57.61</v>
       </c>
       <c r="D26">
-        <v>6.465291950097847</v>
+        <v>6.620762682566239</v>
       </c>
       <c r="E26">
-        <v>24.49489742783179</v>
+        <v>10.79998419759322</v>
       </c>
       <c r="F26">
-        <v>6.320601237224211</v>
+        <v>7.361318131006248</v>
       </c>
       <c r="G26">
-        <v>678.8185666167747</v>
+        <v>911.1057064478109</v>
       </c>
       <c r="H26">
         <v>2.976257030638661</v>
@@ -14721,16 +14721,16 @@
         <v>25.63</v>
       </c>
       <c r="D27">
-        <v>36.64696440361741</v>
+        <v>33.2185442682296</v>
       </c>
       <c r="E27">
-        <v>525.9695808694638</v>
+        <v>18.9956419268295</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>9.634855586723114</v>
       </c>
       <c r="G27">
-        <v>251.644060545086</v>
+        <v>187.2413179820268</v>
       </c>
       <c r="H27">
         <v>57.88164529273696</v>
@@ -14744,16 +14744,16 @@
         <v>23.27</v>
       </c>
       <c r="D28">
-        <v>12.75931032618927</v>
+        <v>7.941847069551708</v>
       </c>
       <c r="E28">
-        <v>13.63818169698587</v>
+        <v>8.142368362017859</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>9.634855586723114</v>
       </c>
       <c r="G28">
-        <v>376.4780270599034</v>
+        <v>242.5891890616892</v>
       </c>
       <c r="H28">
         <v>8.269954756264724</v>
@@ -14767,16 +14767,16 @@
         <v>30.63</v>
       </c>
       <c r="D29">
-        <v>20.4939015319192</v>
+        <v>19.34486176988746</v>
       </c>
       <c r="E29">
-        <v>9.279008567729619</v>
+        <v>63.860893606233</v>
       </c>
       <c r="F29">
-        <v>0.9000000000000007</v>
+        <v>1.448637334282607</v>
       </c>
       <c r="G29">
-        <v>98.81986812662609</v>
+        <v>62.93137671454467</v>
       </c>
       <c r="H29">
         <v>48.9931963342641</v>
@@ -14790,16 +14790,16 @@
         <v>27.84</v>
       </c>
       <c r="D30">
-        <v>4.898979485566358</v>
+        <v>5.536263718868048</v>
       </c>
       <c r="E30">
-        <v>19.36491673103708</v>
+        <v>11.53073600618979</v>
       </c>
       <c r="F30">
-        <v>1.100000000000001</v>
+        <v>1.861152988746354</v>
       </c>
       <c r="G30">
-        <v>75.12176006574263</v>
+        <v>103.0525969380923</v>
       </c>
       <c r="H30">
         <v>8.098140100326281</v>
@@ -14813,16 +14813,16 @@
         <v>21.06</v>
       </c>
       <c r="D31">
-        <v>10.07571337424801</v>
+        <v>10.19005256209557</v>
       </c>
       <c r="E31">
-        <v>16.64932431061391</v>
+        <v>13.68901303634889</v>
       </c>
       <c r="F31">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G31">
-        <v>55.3224919296303</v>
+        <v>42.15067177293366</v>
       </c>
       <c r="H31">
         <v>46.93845680325342</v>
@@ -14836,16 +14836,16 @@
         <v>53.04</v>
       </c>
       <c r="D32">
-        <v>13.1</v>
+        <v>9.3258963461875</v>
       </c>
       <c r="E32">
-        <v>6.287288763847267</v>
+        <v>10.3026396864109</v>
       </c>
       <c r="F32">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G32">
-        <v>49.79762926611875</v>
+        <v>34.26905112371602</v>
       </c>
       <c r="H32">
         <v>7.627594745337666</v>
@@ -14859,16 +14859,16 @@
         <v>40.64</v>
       </c>
       <c r="D33">
-        <v>4.898979485566358</v>
+        <v>6.748411462097404</v>
       </c>
       <c r="E33">
-        <v>1799.999999999998</v>
+        <v>279.9967350184056</v>
       </c>
       <c r="F33">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G33">
-        <v>18510.35087652422</v>
+        <v>16246.47119693219</v>
       </c>
       <c r="H33">
         <v>5.600000000000004</v>
@@ -14882,16 +14882,16 @@
         <v>19.53</v>
       </c>
       <c r="D34">
-        <v>28.58321185591286</v>
+        <v>111.579655897452</v>
       </c>
       <c r="E34">
-        <v>263.4997153698653</v>
+        <v>56.75622748745213</v>
       </c>
       <c r="F34">
-        <v>72.40000000000002</v>
+        <v>56.32882999536389</v>
       </c>
       <c r="G34">
-        <v>1515.411873385682</v>
+        <v>1686.469749830321</v>
       </c>
       <c r="H34">
         <v>101.5613460759151</v>
@@ -14905,16 +14905,16 @@
         <v>27.69</v>
       </c>
       <c r="D35">
-        <v>740.0000000000001</v>
+        <v>73.2312355835974</v>
       </c>
       <c r="E35">
-        <v>95.39392014169459</v>
+        <v>24.50294609502148</v>
       </c>
       <c r="F35">
-        <v>0.9000000000000007</v>
+        <v>2.187857783104878</v>
       </c>
       <c r="G35">
-        <v>1999.175231042853</v>
+        <v>2239.827428252144</v>
       </c>
       <c r="H35">
         <v>11.41653494676972</v>
@@ -14928,16 +14928,16 @@
         <v>57.73</v>
       </c>
       <c r="D36">
-        <v>13.00000000000001</v>
+        <v>11.27406786666633</v>
       </c>
       <c r="E36">
-        <v>37.589892258425</v>
+        <v>21.33789992006657</v>
       </c>
       <c r="F36">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G36">
-        <v>145.6622020235392</v>
+        <v>129.6415582664975</v>
       </c>
       <c r="H36">
         <v>7.928370991412026</v>
@@ -14951,16 +14951,16 @@
         <v>37.36</v>
       </c>
       <c r="D37">
-        <v>13.1</v>
+        <v>8.918468820704071</v>
       </c>
       <c r="E37">
-        <v>7.123201527403245</v>
+        <v>11.70267897278</v>
       </c>
       <c r="F37">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G37">
-        <v>235.6311515639198</v>
+        <v>200.6015323794714</v>
       </c>
       <c r="H37">
         <v>9.091252714284106</v>
@@ -14974,16 +14974,16 @@
         <v>79.53</v>
       </c>
       <c r="D38">
-        <v>11.00000000000001</v>
+        <v>41.51485913149238</v>
       </c>
       <c r="E38">
-        <v>110.1122608976857</v>
+        <v>108.2532633277745</v>
       </c>
       <c r="F38">
-        <v>39.71145930332947</v>
+        <v>92.07600044866658</v>
       </c>
       <c r="G38">
-        <v>33.99023861629684</v>
+        <v>32.80302339436838</v>
       </c>
       <c r="H38">
         <v>82.72242417138129</v>
@@ -14997,16 +14997,16 @@
         <v>30.57</v>
       </c>
       <c r="D39">
-        <v>15.83982323133691</v>
+        <v>27.34052670528102</v>
       </c>
       <c r="E39">
-        <v>280.2341877787223</v>
+        <v>81.66625719604208</v>
       </c>
       <c r="F39">
-        <v>123.4503948960878</v>
+        <v>16.3431010029275</v>
       </c>
       <c r="G39">
-        <v>38.50301451872702</v>
+        <v>50.01428780417522</v>
       </c>
       <c r="H39">
         <v>108.175981949714</v>
@@ -15020,16 +15020,16 @@
         <v>30.35</v>
       </c>
       <c r="D40">
-        <v>334.3650699460094</v>
+        <v>210.9954469777565</v>
       </c>
       <c r="E40">
-        <v>536.7770486896778</v>
+        <v>368.5567081664893</v>
       </c>
       <c r="F40">
-        <v>824.699945434702</v>
+        <v>277.3440771786267</v>
       </c>
       <c r="G40">
-        <v>1362.107624482933</v>
+        <v>1329.223760058323</v>
       </c>
       <c r="H40">
         <v>230.1531557108001</v>
@@ -15043,16 +15043,16 @@
         <v>46.09</v>
       </c>
       <c r="D41">
-        <v>6.752777206453655</v>
+        <v>4.587009677756173</v>
       </c>
       <c r="E41">
-        <v>19.00526242912738</v>
+        <v>15.37703988652891</v>
       </c>
       <c r="F41">
-        <v>4.700000000000006</v>
+        <v>5.042374411701775</v>
       </c>
       <c r="G41">
-        <v>6126.192694572118</v>
+        <v>5433.573022461012</v>
       </c>
       <c r="H41">
         <v>2.937599966418428</v>
@@ -15066,16 +15066,16 @@
         <v>45.67</v>
       </c>
       <c r="D42">
-        <v>7.756287771866134</v>
+        <v>12.28537754309766</v>
       </c>
       <c r="E42">
-        <v>11.35781669160056</v>
+        <v>14.64317109088037</v>
       </c>
       <c r="F42">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G42">
-        <v>1989.814328979927</v>
+        <v>1666.198760946055</v>
       </c>
       <c r="H42">
         <v>35.13320667063486</v>
@@ -15089,16 +15089,16 @@
         <v>43.66</v>
       </c>
       <c r="D43">
-        <v>11.95826074310141</v>
+        <v>12.89487249473042</v>
       </c>
       <c r="E43">
-        <v>6.300000000000006</v>
+        <v>10.7368209334756</v>
       </c>
       <c r="F43">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G43">
-        <v>2904.524978058245</v>
+        <v>3153.298707264431</v>
       </c>
       <c r="H43">
         <v>16.04213693166081</v>
@@ -15112,16 +15112,16 @@
         <v>77.39</v>
       </c>
       <c r="D44">
-        <v>39.04740708420989</v>
+        <v>94.30736866782773</v>
       </c>
       <c r="E44">
-        <v>462.7915297409845</v>
+        <v>124.7586121212971</v>
       </c>
       <c r="F44">
-        <v>32.00000000000002</v>
+        <v>31.02125496314875</v>
       </c>
       <c r="G44">
-        <v>626.6078499997521</v>
+        <v>636.5881041632937</v>
       </c>
       <c r="H44">
         <v>25.10542149414451</v>
@@ -15135,16 +15135,16 @@
         <v>30.24</v>
       </c>
       <c r="D45">
-        <v>1211.554373521882</v>
+        <v>765.2226885946608</v>
       </c>
       <c r="E45">
-        <v>1061.838029079765</v>
+        <v>869.6099912410231</v>
       </c>
       <c r="F45">
-        <v>102.469507659596</v>
+        <v>343.9548111500075</v>
       </c>
       <c r="G45">
-        <v>1033.477526304079</v>
+        <v>844.3756057816159</v>
       </c>
       <c r="H45">
         <v>497.1126200365338</v>
@@ -15158,16 +15158,16 @@
         <v>41.14</v>
       </c>
       <c r="D46">
-        <v>4354.29787681091</v>
+        <v>2249.636532298302</v>
       </c>
       <c r="E46">
-        <v>962.2785459522631</v>
+        <v>4875.240244396199</v>
       </c>
       <c r="F46">
-        <v>2076.316448488775</v>
+        <v>1949.959680373645</v>
       </c>
       <c r="G46">
-        <v>918.2921967748377</v>
+        <v>977.0501920633586</v>
       </c>
       <c r="H46">
         <v>2292.060422554829</v>
@@ -15181,16 +15181,16 @@
         <v>19.68</v>
       </c>
       <c r="D47">
-        <v>3321.906831926512</v>
+        <v>727.1261806643141</v>
       </c>
       <c r="E47">
-        <v>807.1257646736348</v>
+        <v>880.3272072656135</v>
       </c>
       <c r="F47">
-        <v>89.86100377805714</v>
+        <v>185.8059448303225</v>
       </c>
       <c r="G47">
-        <v>444.1137746577216</v>
+        <v>533.7769676103051</v>
       </c>
       <c r="H47">
         <v>418.037237511945</v>
@@ -15204,16 +15204,16 @@
         <v>79.75</v>
       </c>
       <c r="D48">
-        <v>3321.906831926512</v>
+        <v>498.2040340941667</v>
       </c>
       <c r="E48">
-        <v>807.1257646736348</v>
+        <v>222.0459539502895</v>
       </c>
       <c r="F48">
-        <v>89.86100377805714</v>
+        <v>189.6051291082325</v>
       </c>
       <c r="G48">
-        <v>117.9617339111664</v>
+        <v>151.2238051124944</v>
       </c>
       <c r="H48">
         <v>7.642604669132224</v>
@@ -15227,16 +15227,16 @@
         <v>28.97</v>
       </c>
       <c r="D49">
-        <v>640.0781202322099</v>
+        <v>425.4947378539325</v>
       </c>
       <c r="E49">
-        <v>4329.018364479416</v>
+        <v>509.8939172355639</v>
       </c>
       <c r="F49">
-        <v>1015.874007936023</v>
+        <v>263.2395213048006</v>
       </c>
       <c r="G49">
-        <v>1657.906877134433</v>
+        <v>1970.662943884879</v>
       </c>
       <c r="H49">
         <v>99.71941344821103</v>
@@ -15250,16 +15250,16 @@
         <v>80.45</v>
       </c>
       <c r="D50">
-        <v>640.0781202322099</v>
+        <v>449.9625126304551</v>
       </c>
       <c r="E50">
-        <v>186.5572298250595</v>
+        <v>137.0121393268675</v>
       </c>
       <c r="F50">
-        <v>2.200000000000002</v>
+        <v>5.255112124505495</v>
       </c>
       <c r="G50">
-        <v>1734.239824725822</v>
+        <v>1856.778859375784</v>
       </c>
       <c r="H50">
         <v>2.78228613080436</v>
@@ -15273,16 +15273,16 @@
         <v>77.53</v>
       </c>
       <c r="D51">
-        <v>11.85748708622531</v>
+        <v>8.035325119402065</v>
       </c>
       <c r="E51">
-        <v>16.43167672515496</v>
+        <v>18.88353681551557</v>
       </c>
       <c r="F51">
-        <v>16.43167672515499</v>
+        <v>9.504802707508583</v>
       </c>
       <c r="G51">
-        <v>1145.207445963971</v>
+        <v>1017.603171864374</v>
       </c>
       <c r="H51">
         <v>10.8802436508296</v>
@@ -15296,16 +15296,16 @@
         <v>107.04</v>
       </c>
       <c r="D52">
-        <v>15943.82334949811</v>
+        <v>1107.458232360914</v>
       </c>
       <c r="E52">
-        <v>3507.135583350037</v>
+        <v>974.9611840555693</v>
       </c>
       <c r="F52">
-        <v>453.5416188179422</v>
+        <v>782.3184829002207</v>
       </c>
       <c r="G52">
-        <v>1029.615072270753</v>
+        <v>873.2907628133478</v>
       </c>
       <c r="H52">
         <v>1049.354427047945</v>
@@ -15319,16 +15319,16 @@
         <v>38.99</v>
       </c>
       <c r="D53">
-        <v>4247.64581856821</v>
+        <v>982.6094431274746</v>
       </c>
       <c r="E53">
-        <v>969.329665284211</v>
+        <v>1238.33419683384</v>
       </c>
       <c r="F53">
-        <v>134.3874994186586</v>
+        <v>353.7009431646609</v>
       </c>
       <c r="G53">
-        <v>1651.356977016951</v>
+        <v>2195.13438731941</v>
       </c>
       <c r="H53">
         <v>1129.719436023274</v>
@@ -15342,16 +15342,16 @@
         <v>50.82</v>
       </c>
       <c r="D54">
-        <v>1211.554373521882</v>
+        <v>770.7416391901412</v>
       </c>
       <c r="E54">
-        <v>1061.838029079765</v>
+        <v>598.6049726776079</v>
       </c>
       <c r="F54">
-        <v>220.2271554554525</v>
+        <v>345.0755157681672</v>
       </c>
       <c r="G54">
-        <v>1033.477526304079</v>
+        <v>844.3756057816159</v>
       </c>
       <c r="H54">
         <v>2185.295106613326</v>
@@ -15365,16 +15365,16 @@
         <v>52.89</v>
       </c>
       <c r="D55">
-        <v>18.04438970982395</v>
+        <v>12.49722991730358</v>
       </c>
       <c r="E55">
-        <v>24.49489742783179</v>
+        <v>16.09299488825787</v>
       </c>
       <c r="F55">
-        <v>7.816648898345128</v>
+        <v>9.5799154483325</v>
       </c>
       <c r="G55">
-        <v>407.5391462547061</v>
+        <v>552.798748489055</v>
       </c>
       <c r="H55">
         <v>7.78544293465934</v>
@@ -15388,16 +15388,16 @@
         <v>43.58</v>
       </c>
       <c r="D56">
-        <v>9.12688336728373</v>
+        <v>26.38583232417585</v>
       </c>
       <c r="E56">
-        <v>90.4986187739902</v>
+        <v>46.34610496086187</v>
       </c>
       <c r="F56">
-        <v>71.83313998427195</v>
+        <v>14.84119427330812</v>
       </c>
       <c r="G56">
-        <v>1757.190371319693</v>
+        <v>1875.563090144724</v>
       </c>
       <c r="H56">
         <v>9.960796509474337</v>
@@ -15411,16 +15411,16 @@
         <v>33.9</v>
       </c>
       <c r="D57">
-        <v>1211.554373521882</v>
+        <v>1690.839878170924</v>
       </c>
       <c r="E57">
-        <v>3507.135583350037</v>
+        <v>2874.848123367074</v>
       </c>
       <c r="F57">
-        <v>2076.316448488775</v>
+        <v>1999.725287897727</v>
       </c>
       <c r="G57">
-        <v>1033.477526304079</v>
+        <v>875.3953709288236</v>
       </c>
       <c r="H57">
         <v>1041.938246887107</v>
@@ -15434,16 +15434,16 @@
         <v>90.43000000000001</v>
       </c>
       <c r="D58">
-        <v>16.00000000000001</v>
+        <v>12.25084102758394</v>
       </c>
       <c r="E58">
-        <v>24.14953415699771</v>
+        <v>57.50833990813337</v>
       </c>
       <c r="F58">
-        <v>75.49834435270751</v>
+        <v>33.03229033347846</v>
       </c>
       <c r="G58">
-        <v>2660.723901688196</v>
+        <v>1762.08296465287</v>
       </c>
       <c r="H58">
         <v>6.347536606226175</v>
@@ -15457,16 +15457,16 @@
         <v>20.38</v>
       </c>
       <c r="D59">
-        <v>1211.554373521882</v>
+        <v>765.2226885946608</v>
       </c>
       <c r="E59">
-        <v>3507.135583350037</v>
+        <v>760.1912740160468</v>
       </c>
       <c r="F59">
-        <v>102.469507659596</v>
+        <v>343.9548111500075</v>
       </c>
       <c r="G59">
-        <v>1033.477526304079</v>
+        <v>844.3756057816159</v>
       </c>
       <c r="H59">
         <v>497.1126200365338</v>
@@ -15480,16 +15480,16 @@
         <v>32.58</v>
       </c>
       <c r="D60">
-        <v>243.4255533012097</v>
+        <v>303.5340870466385</v>
       </c>
       <c r="E60">
-        <v>9.874208829065752</v>
+        <v>29.10430251689633</v>
       </c>
       <c r="F60">
-        <v>180.0000000000001</v>
+        <v>12.73621402987147</v>
       </c>
       <c r="G60">
-        <v>353.771718157297</v>
+        <v>221.3378808730675</v>
       </c>
       <c r="H60">
         <v>8.35103791465381</v>
@@ -15503,16 +15503,16 @@
         <v>29.66</v>
       </c>
       <c r="D61">
-        <v>270.3701166919151</v>
+        <v>457.6254202790668</v>
       </c>
       <c r="E61">
-        <v>38.75925695882214</v>
+        <v>45.74543060389136</v>
       </c>
       <c r="F61">
-        <v>1015.874007936023</v>
+        <v>81.34676474090854</v>
       </c>
       <c r="G61">
-        <v>984.1594397870916</v>
+        <v>1088.638037448882</v>
       </c>
       <c r="H61">
         <v>11.32371348240197</v>
@@ -15526,16 +15526,16 @@
         <v>45.62</v>
       </c>
       <c r="D62">
-        <v>884.9999999999993</v>
+        <v>296.6874493201901</v>
       </c>
       <c r="E62">
-        <v>558.1397674418128</v>
+        <v>475.9398252099858</v>
       </c>
       <c r="F62">
-        <v>774.5966692414835</v>
+        <v>259.0460487368528</v>
       </c>
       <c r="G62">
-        <v>745.7297920072076</v>
+        <v>693.847186968303</v>
       </c>
       <c r="H62">
         <v>101.7238461234434</v>
@@ -15549,16 +15549,16 @@
         <v>38.2</v>
       </c>
       <c r="D63">
-        <v>13.04990421420788</v>
+        <v>8.132686738731783</v>
       </c>
       <c r="E63">
-        <v>9.082951062292478</v>
+        <v>31.34612619778091</v>
       </c>
       <c r="F63">
-        <v>17.46049604742133</v>
+        <v>11.32257094330632</v>
       </c>
       <c r="G63">
-        <v>139.6518193757995</v>
+        <v>209.8926741678324</v>
       </c>
       <c r="H63">
         <v>88.31703825046745</v>
@@ -15572,16 +15572,16 @@
         <v>30.5</v>
       </c>
       <c r="D64">
-        <v>35.94440151122286</v>
+        <v>12.87054712833146</v>
       </c>
       <c r="E64">
-        <v>519.6152422706634</v>
+        <v>182.3966843929723</v>
       </c>
       <c r="F64">
-        <v>7.476630257007489</v>
+        <v>8.37913120842971</v>
       </c>
       <c r="G64">
-        <v>16001.2324351413</v>
+        <v>14437.23699202322</v>
       </c>
       <c r="H64">
         <v>7.78544293465934</v>
@@ -15595,16 +15595,16 @@
         <v>29.16</v>
       </c>
       <c r="D65">
-        <v>31.84336665618134</v>
+        <v>9.888153953665634</v>
       </c>
       <c r="E65">
-        <v>6.200000000000006</v>
+        <v>9.297484795511798</v>
       </c>
       <c r="F65">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G65">
-        <v>10.66023695407135</v>
+        <v>18.85300469083369</v>
       </c>
       <c r="H65">
         <v>9.869470279083831</v>
@@ -15618,16 +15618,16 @@
         <v>42.09</v>
       </c>
       <c r="D66">
-        <v>0.9000000000000007</v>
+        <v>4.364959735156259</v>
       </c>
       <c r="E66">
-        <v>8.049844718999251</v>
+        <v>11.36644879893725</v>
       </c>
       <c r="F66">
-        <v>6.265730246571933</v>
+        <v>9.062082343669385</v>
       </c>
       <c r="G66">
-        <v>3554.133021616594</v>
+        <v>2211.348445533439</v>
       </c>
       <c r="H66">
         <v>17.46824172097522</v>
@@ -15641,16 +15641,16 @@
         <v>23.86</v>
       </c>
       <c r="D67">
-        <v>160.9347693943108</v>
+        <v>33.60958402668974</v>
       </c>
       <c r="E67">
-        <v>9.279008567729619</v>
+        <v>24.7952394320902</v>
       </c>
       <c r="F67">
-        <v>0.9000000000000007</v>
+        <v>2.379050244679073</v>
       </c>
       <c r="G67">
-        <v>602.5804602467833</v>
+        <v>461.8337137415971</v>
       </c>
       <c r="H67">
         <v>32.49112183528948</v>
@@ -15664,16 +15664,16 @@
         <v>68.2</v>
       </c>
       <c r="D68">
-        <v>6.465291950097847</v>
+        <v>4.80384412426382</v>
       </c>
       <c r="E68">
-        <v>15.73213272255228</v>
+        <v>13.25631719279328</v>
       </c>
       <c r="F68">
-        <v>4.700000000000006</v>
+        <v>5.042374411701775</v>
       </c>
       <c r="G68">
-        <v>501.1062342487236</v>
+        <v>532.4441074901105</v>
       </c>
       <c r="H68">
         <v>3.997540154266503</v>
@@ -15687,16 +15687,16 @@
         <v>99.97</v>
       </c>
       <c r="D69">
-        <v>19.98999749874923</v>
+        <v>11.27235499225135</v>
       </c>
       <c r="E69">
-        <v>8.485281374238575</v>
+        <v>9.006529902377725</v>
       </c>
       <c r="F69">
-        <v>3.628445763382971</v>
+        <v>8.433192653989879</v>
       </c>
       <c r="G69">
-        <v>506.8348492818438</v>
+        <v>375.5529373595556</v>
       </c>
       <c r="H69">
         <v>10.97653399825007</v>
@@ -15710,16 +15710,16 @@
         <v>46.64</v>
       </c>
       <c r="D70">
-        <v>11.00000000000001</v>
+        <v>26.81954912792704</v>
       </c>
       <c r="E70">
-        <v>95.45773934050617</v>
+        <v>50.43965073815911</v>
       </c>
       <c r="F70">
-        <v>45.52905695931094</v>
+        <v>23.03991334723404</v>
       </c>
       <c r="G70">
-        <v>40.9901392749834</v>
+        <v>35.73978917499611</v>
       </c>
       <c r="H70">
         <v>15.25290887805568</v>
@@ -15733,16 +15733,16 @@
         <v>37.14</v>
       </c>
       <c r="D71">
-        <v>243.4255533012097</v>
+        <v>529.6305349418409</v>
       </c>
       <c r="E71">
-        <v>1128.893263333606</v>
+        <v>505.8491811088962</v>
       </c>
       <c r="F71">
-        <v>1015.874007936023</v>
+        <v>253.7062394981877</v>
       </c>
       <c r="G71">
-        <v>16116.3888182367</v>
+        <v>11735.18874590066</v>
       </c>
       <c r="H71">
         <v>21.12390842019033</v>
@@ -15756,16 +15756,16 @@
         <v>24.61</v>
       </c>
       <c r="D72">
-        <v>538.2211441405839</v>
+        <v>66.40460913311321</v>
       </c>
       <c r="E72">
-        <v>138.2389236069206</v>
+        <v>55.1608522372095</v>
       </c>
       <c r="F72">
-        <v>51.38093031466056</v>
+        <v>10.72462213059257</v>
       </c>
       <c r="G72">
-        <v>5758.551048741494</v>
+        <v>5594.328910528056</v>
       </c>
       <c r="H72">
         <v>2.439620114646859</v>
@@ -15779,16 +15779,16 @@
         <v>38.71</v>
       </c>
       <c r="D73">
-        <v>15.62689988449405</v>
+        <v>16.48500398920614</v>
       </c>
       <c r="E73">
-        <v>1799.999999999998</v>
+        <v>276.0720930879501</v>
       </c>
       <c r="F73">
-        <v>20.47193200457639</v>
+        <v>20.55190400686892</v>
       </c>
       <c r="G73">
-        <v>4733.113137429734</v>
+        <v>6003.737850062133</v>
       </c>
       <c r="H73">
         <v>7.541986732174349</v>
@@ -15802,16 +15802,16 @@
         <v>31.74</v>
       </c>
       <c r="D74">
-        <v>4.690415759823432</v>
+        <v>11.73886429741249</v>
       </c>
       <c r="E74">
-        <v>8.324662155306971</v>
+        <v>11.6161125285178</v>
       </c>
       <c r="F74">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G74">
-        <v>3076.006660733504</v>
+        <v>3061.840560909563</v>
       </c>
       <c r="H74">
         <v>17.8756866412681</v>
@@ -15825,16 +15825,16 @@
         <v>54.64</v>
       </c>
       <c r="D75">
-        <v>22.22611077089287</v>
+        <v>5.685427079643014</v>
       </c>
       <c r="E75">
-        <v>3.244996147917593</v>
+        <v>7.609259006904548</v>
       </c>
       <c r="F75">
-        <v>123.4503948960878</v>
+        <v>19.95955350843532</v>
       </c>
       <c r="G75">
-        <v>764.4136307689536</v>
+        <v>836.0753333050067</v>
       </c>
       <c r="H75">
         <v>5.25600220549474</v>
@@ -15848,16 +15848,16 @@
         <v>42.62</v>
       </c>
       <c r="D76">
-        <v>13.04990421420788</v>
+        <v>8.574412915586642</v>
       </c>
       <c r="E76">
-        <v>22.97825058615213</v>
+        <v>19.92220230991512</v>
       </c>
       <c r="F76">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G76">
-        <v>2586.480048693921</v>
+        <v>2759.549272494722</v>
       </c>
       <c r="H76">
         <v>8.632815851605599</v>
@@ -15871,16 +15871,16 @@
         <v>101.01</v>
       </c>
       <c r="D77">
-        <v>2.891366458960193</v>
+        <v>17.18489021219085</v>
       </c>
       <c r="E77">
-        <v>1253.315602711465</v>
+        <v>123.6622805547715</v>
       </c>
       <c r="F77">
-        <v>32.00000000000002</v>
+        <v>26.41846840488401</v>
       </c>
       <c r="G77">
-        <v>1422.177460573982</v>
+        <v>1104.092116152118</v>
       </c>
       <c r="H77">
         <v>2.62800110274737</v>
@@ -15894,16 +15894,16 @@
         <v>61.58</v>
       </c>
       <c r="D78">
-        <v>46.184412955022</v>
+        <v>16.19565416452792</v>
       </c>
       <c r="E78">
-        <v>1799.999999999998</v>
+        <v>321.3447930812154</v>
       </c>
       <c r="F78">
-        <v>20.47193200457639</v>
+        <v>21.64353558595175</v>
       </c>
       <c r="G78">
-        <v>4733.113137429734</v>
+        <v>6003.737850062133</v>
       </c>
       <c r="H78">
         <v>7.541986732174349</v>
@@ -15917,16 +15917,16 @@
         <v>120.92</v>
       </c>
       <c r="D79">
-        <v>9.499999999999996</v>
+        <v>14.31101531445706</v>
       </c>
       <c r="E79">
-        <v>311.7691453623976</v>
+        <v>291.7159061983147</v>
       </c>
       <c r="F79">
-        <v>51.38093031466056</v>
+        <v>14.63097677168608</v>
       </c>
       <c r="G79">
-        <v>5318.432657098127</v>
+        <v>4711.490265443772</v>
       </c>
       <c r="H79">
         <v>2.78228613080436</v>
@@ -15940,16 +15940,16 @@
         <v>130.12</v>
       </c>
       <c r="D80">
-        <v>19.98999749874923</v>
+        <v>8.403710906195322</v>
       </c>
       <c r="E80">
-        <v>37.41657386773942</v>
+        <v>16.56764084900998</v>
       </c>
       <c r="F80">
-        <v>26.99999999999998</v>
+        <v>10.95035398430527</v>
       </c>
       <c r="G80">
-        <v>894.5305065297352</v>
+        <v>1014.889036947214</v>
       </c>
       <c r="H80">
         <v>22.63181880895386</v>
@@ -15963,16 +15963,16 @@
         <v>51.41</v>
       </c>
       <c r="D81">
-        <v>3.019933774108301</v>
+        <v>37.37893677345144</v>
       </c>
       <c r="E81">
-        <v>204.939015319192</v>
+        <v>62.77024555924054</v>
       </c>
       <c r="F81">
-        <v>20.47193200457639</v>
+        <v>22.54479628121172</v>
       </c>
       <c r="G81">
-        <v>694.5254179443292</v>
+        <v>615.5744233173341</v>
       </c>
       <c r="H81">
         <v>52.57069840302585</v>
@@ -15986,16 +15986,16 @@
         <v>92.22</v>
       </c>
       <c r="D82">
-        <v>32.18695387886217</v>
+        <v>22.34073754965949</v>
       </c>
       <c r="E82">
-        <v>6.363961030678932</v>
+        <v>7.46956507742097</v>
       </c>
       <c r="F82">
-        <v>15.32162935939658</v>
+        <v>20.81893271953096</v>
       </c>
       <c r="G82">
-        <v>1645.228647962604</v>
+        <v>1471.601345552387</v>
       </c>
       <c r="H82">
         <v>10.47446554310287</v>
@@ -16009,16 +16009,16 @@
         <v>56.45</v>
       </c>
       <c r="D83">
-        <v>3.019933774108301</v>
+        <v>27.50896380007</v>
       </c>
       <c r="E83">
-        <v>204.939015319192</v>
+        <v>71.09852688979211</v>
       </c>
       <c r="F83">
-        <v>20.47193200457639</v>
+        <v>28.50148866316879</v>
       </c>
       <c r="G83">
-        <v>668.0044497242105</v>
+        <v>604.2722766300523</v>
       </c>
       <c r="H83">
         <v>25.10542149414451</v>
@@ -16032,16 +16032,16 @@
         <v>111.1</v>
       </c>
       <c r="D84">
-        <v>27.08135890238896</v>
+        <v>52.87877070061824</v>
       </c>
       <c r="E84">
-        <v>462.7915297409845</v>
+        <v>63.88253360022762</v>
       </c>
       <c r="F84">
-        <v>32.49615361854387</v>
+        <v>35.96088446497756</v>
       </c>
       <c r="G84">
-        <v>693.5886913703813</v>
+        <v>869.2645888740682</v>
       </c>
       <c r="H84">
         <v>2.62800110274737</v>
@@ -16055,16 +16055,16 @@
         <v>42.62</v>
       </c>
       <c r="D85">
-        <v>6.024948132556833</v>
+        <v>10.09917213725726</v>
       </c>
       <c r="E85">
-        <v>6.708203932499371</v>
+        <v>17.68362642581832</v>
       </c>
       <c r="F85">
-        <v>9.800098482952441</v>
+        <v>11.54280708452206</v>
       </c>
       <c r="G85">
-        <v>1989.581191999053</v>
+        <v>1862.709388967886</v>
       </c>
       <c r="H85">
         <v>7.643289428984409</v>
@@ -16078,16 +16078,16 @@
         <v>55.18</v>
       </c>
       <c r="D86">
-        <v>44.42296703283116</v>
+        <v>30.23057941409861</v>
       </c>
       <c r="E86">
-        <v>18.1107702762748</v>
+        <v>33.07834241630227</v>
       </c>
       <c r="F86">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G86">
-        <v>116.5457052926974</v>
+        <v>188.8737501014318</v>
       </c>
       <c r="H86">
         <v>31.96289971147482</v>
@@ -16101,16 +16101,16 @@
         <v>20.14</v>
       </c>
       <c r="D87">
-        <v>2.891366458960193</v>
+        <v>4.11515872879774</v>
       </c>
       <c r="E87">
-        <v>23.62202362203541</v>
+        <v>18.18706485006325</v>
       </c>
       <c r="F87">
-        <v>26.99999999999998</v>
+        <v>20.17928705806437</v>
       </c>
       <c r="G87">
-        <v>4048.976612729001</v>
+        <v>3881.13879441581</v>
       </c>
       <c r="H87">
         <v>13.29879952230195</v>
@@ -16124,16 +16124,16 @@
         <v>89</v>
       </c>
       <c r="D88">
-        <v>10.39230484541327</v>
+        <v>16.25587294832858</v>
       </c>
       <c r="E88">
-        <v>15.00000000000001</v>
+        <v>30.08337058817773</v>
       </c>
       <c r="F88">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G88">
-        <v>908.8622346687588</v>
+        <v>875.8785518723715</v>
       </c>
       <c r="H88">
         <v>4.436134936863915</v>
@@ -16147,16 +16147,16 @@
         <v>36.68</v>
       </c>
       <c r="D89">
-        <v>791.5806970865331</v>
+        <v>495.8375995307505</v>
       </c>
       <c r="E89">
-        <v>2100.000000000006</v>
+        <v>895.6302918908846</v>
       </c>
       <c r="F89">
-        <v>1015.874007936023</v>
+        <v>259.8089114069802</v>
       </c>
       <c r="G89">
-        <v>1537.302556350188</v>
+        <v>1159.290862635543</v>
       </c>
       <c r="H89">
         <v>99.71941344821103</v>
@@ -16170,16 +16170,16 @@
         <v>61.58</v>
       </c>
       <c r="D90">
-        <v>4.898979485566358</v>
+        <v>10.29292043572218</v>
       </c>
       <c r="E90">
-        <v>32.86335345030999</v>
+        <v>61.02473409521482</v>
       </c>
       <c r="F90">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G90">
-        <v>1074.285773743394</v>
+        <v>1479.559732386442</v>
       </c>
       <c r="H90">
         <v>102.2834611704432</v>
@@ -16193,16 +16193,16 @@
         <v>35.29</v>
       </c>
       <c r="D91">
-        <v>6.039867548216603</v>
+        <v>12.60563163568793</v>
       </c>
       <c r="E91">
-        <v>50.11985634456675</v>
+        <v>37.807687202132</v>
       </c>
       <c r="F91">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G91">
-        <v>401.1124781622828</v>
+        <v>417.5519852224121</v>
       </c>
       <c r="H91">
         <v>6.983447481651015</v>
@@ -16216,16 +16216,16 @@
         <v>114.74</v>
       </c>
       <c r="D92">
-        <v>9.499999999999996</v>
+        <v>9.165588974828234</v>
       </c>
       <c r="E92">
-        <v>11.77285012220916</v>
+        <v>14.10635986645238</v>
       </c>
       <c r="F92">
-        <v>123.4503948960878</v>
+        <v>19.15675267797593</v>
       </c>
       <c r="G92">
-        <v>353.3686292028382</v>
+        <v>458.9588799073153</v>
       </c>
       <c r="H92">
         <v>7.541986732174349</v>
@@ -16239,16 +16239,16 @@
         <v>51.86</v>
       </c>
       <c r="D93">
-        <v>4247.64581856821</v>
+        <v>755.9943040383946</v>
       </c>
       <c r="E93">
-        <v>726.6360849833985</v>
+        <v>842.2686818085732</v>
       </c>
       <c r="F93">
-        <v>774.5966692414835</v>
+        <v>244.075536794745</v>
       </c>
       <c r="G93">
-        <v>1033.477526304079</v>
+        <v>863.7154156768401</v>
       </c>
       <c r="H93">
         <v>497.1126200365338</v>
@@ -16262,16 +16262,16 @@
         <v>48.69</v>
       </c>
       <c r="D94">
-        <v>4247.64581856821</v>
+        <v>878.7803042051655</v>
       </c>
       <c r="E94">
-        <v>726.6360849833985</v>
+        <v>933.0207781743923</v>
       </c>
       <c r="F94">
-        <v>774.5966692414835</v>
+        <v>244.075536794745</v>
       </c>
       <c r="G94">
-        <v>1464.701851015612</v>
+        <v>1245.442845759811</v>
       </c>
       <c r="H94">
         <v>438.6516855279663</v>
@@ -16285,16 +16285,16 @@
         <v>34.02</v>
       </c>
       <c r="D95">
-        <v>2.503996805109784</v>
+        <v>5.250374827466096</v>
       </c>
       <c r="E95">
-        <v>11.77285012220916</v>
+        <v>17.46268990129456</v>
       </c>
       <c r="F95">
-        <v>7.816648898345128</v>
+        <v>9.5799154483325</v>
       </c>
       <c r="G95">
-        <v>418.7642165795758</v>
+        <v>395.6205599718861</v>
       </c>
       <c r="H95">
         <v>7.541986732174349</v>
@@ -16308,16 +16308,16 @@
         <v>63.92</v>
       </c>
       <c r="D96">
-        <v>10.64894360957932</v>
+        <v>10.45262740063667</v>
       </c>
       <c r="E96">
-        <v>10.15775565762439</v>
+        <v>10.74667689538865</v>
       </c>
       <c r="F96">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G96">
-        <v>35.59090096661635</v>
+        <v>41.24553184683606</v>
       </c>
       <c r="H96">
         <v>11.59237013120723</v>
@@ -16331,16 +16331,16 @@
         <v>30.18</v>
       </c>
       <c r="D97">
-        <v>7.756287771866134</v>
+        <v>8.001978091997032</v>
       </c>
       <c r="E97">
-        <v>7.590783885739333</v>
+        <v>7.694634060467787</v>
       </c>
       <c r="F97">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G97">
-        <v>97.3364057751906</v>
+        <v>52.7747863032161</v>
       </c>
       <c r="H97">
         <v>5.600000000000004</v>
@@ -16354,16 +16354,16 @@
         <v>38.07</v>
       </c>
       <c r="D98">
-        <v>6.575712889109445</v>
+        <v>11.38896498667669</v>
       </c>
       <c r="E98">
-        <v>37.589892258425</v>
+        <v>9.435332974303705</v>
       </c>
       <c r="F98">
-        <v>0.9000000000000007</v>
+        <v>2.187857783104878</v>
       </c>
       <c r="G98">
-        <v>121.3804478264043</v>
+        <v>157.3883359393186</v>
       </c>
       <c r="H98">
         <v>8.67013142204094</v>
@@ -16377,16 +16377,16 @@
         <v>24.78</v>
       </c>
       <c r="D99">
-        <v>13.04990421420788</v>
+        <v>11.601868326865</v>
       </c>
       <c r="E99">
-        <v>6.300000000000006</v>
+        <v>13.15354992382152</v>
       </c>
       <c r="F99">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G99">
-        <v>99.56866874085446</v>
+        <v>115.9292195526291</v>
       </c>
       <c r="H99">
         <v>7.928370991412026</v>
@@ -16400,16 +16400,16 @@
         <v>63.43</v>
       </c>
       <c r="D100">
-        <v>9.400000000000011</v>
+        <v>9.454614769866261</v>
       </c>
       <c r="E100">
-        <v>7.590783885739333</v>
+        <v>8.379803772194878</v>
       </c>
       <c r="F100">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G100">
-        <v>32.34549868212112</v>
+        <v>21.33621409728503</v>
       </c>
       <c r="H100">
         <v>111.5362885926709</v>
@@ -16423,16 +16423,16 @@
         <v>24.36</v>
       </c>
       <c r="D101">
-        <v>35.94440151122286</v>
+        <v>20.20033706589109</v>
       </c>
       <c r="E101">
-        <v>9.497368056466996</v>
+        <v>19.87769015738682</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>9.393286842850172</v>
       </c>
       <c r="G101">
-        <v>879.1254543133501</v>
+        <v>686.1690790451222</v>
       </c>
       <c r="H101">
         <v>13.72525577297368</v>
@@ -16446,16 +16446,16 @@
         <v>103.58</v>
       </c>
       <c r="D102">
-        <v>37.99999999999999</v>
+        <v>13.40849696725538</v>
       </c>
       <c r="E102">
-        <v>109.2757978694277</v>
+        <v>10.4854973255459</v>
       </c>
       <c r="F102">
-        <v>4.300000000000005</v>
+        <v>6.400380943837524</v>
       </c>
       <c r="G102">
-        <v>788.8905892596246</v>
+        <v>824.4668933032464</v>
       </c>
       <c r="H102">
         <v>4.328884322676174</v>
@@ -16469,16 +16469,16 @@
         <v>87.72</v>
       </c>
       <c r="D103">
-        <v>5.366563145999499</v>
+        <v>17.68463630833737</v>
       </c>
       <c r="E103">
-        <v>35.35533905932737</v>
+        <v>28.70285743126134</v>
       </c>
       <c r="F103">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G103">
-        <v>421.7162880754046</v>
+        <v>621.7996449198985</v>
       </c>
       <c r="H103">
         <v>17.8756866412681</v>
@@ -16492,16 +16492,16 @@
         <v>60.11</v>
       </c>
       <c r="D104">
-        <v>24.95996794869739</v>
+        <v>14.8079543680361</v>
       </c>
       <c r="E104">
-        <v>6.200000000000006</v>
+        <v>10.24347705308679</v>
       </c>
       <c r="F104">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G104">
-        <v>43.76191911133404</v>
+        <v>90.13261324309565</v>
       </c>
       <c r="H104">
         <v>9.499999999999996</v>
@@ -16515,16 +16515,16 @@
         <v>51.93</v>
       </c>
       <c r="D105">
-        <v>6.78232998312527</v>
+        <v>7.350037599882438</v>
       </c>
       <c r="E105">
-        <v>84.85281374238575</v>
+        <v>25.15204118024652</v>
       </c>
       <c r="F105">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G105">
-        <v>672.4393939457085</v>
+        <v>899.0972050674035</v>
       </c>
       <c r="H105">
         <v>9.091252714284106</v>
@@ -16538,16 +16538,16 @@
         <v>21.1</v>
       </c>
       <c r="D106">
-        <v>8.010617953691206</v>
+        <v>9.308522754667017</v>
       </c>
       <c r="E106">
-        <v>10.69579356569676</v>
+        <v>9.056500209080673</v>
       </c>
       <c r="F106">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G106">
-        <v>16.37157652780047</v>
+        <v>35.27104789349404</v>
       </c>
       <c r="H106">
         <v>25.71060643125336</v>
@@ -16561,16 +16561,16 @@
         <v>26.16</v>
       </c>
       <c r="D107">
-        <v>11.38419957660618</v>
+        <v>11.6071932782011</v>
       </c>
       <c r="E107">
-        <v>7.589466384404115</v>
+        <v>9.765237327478014</v>
       </c>
       <c r="F107">
-        <v>3.628445763382971</v>
+        <v>8.433192653989879</v>
       </c>
       <c r="G107">
-        <v>385.5392500086908</v>
+        <v>267.0783103076571</v>
       </c>
       <c r="H107">
         <v>8.269954756264724</v>
@@ -16584,16 +16584,16 @@
         <v>24.24</v>
       </c>
       <c r="D108">
-        <v>0.9000000000000007</v>
+        <v>2.001104141969582</v>
       </c>
       <c r="E108">
-        <v>201.2461179749812</v>
+        <v>215.8553931463894</v>
       </c>
       <c r="F108">
-        <v>3.628445763382971</v>
+        <v>7.682156999791036</v>
       </c>
       <c r="G108">
-        <v>10272.55781605983</v>
+        <v>8690.265688396606</v>
       </c>
       <c r="H108">
         <v>2.256851542965392</v>
@@ -16607,16 +16607,16 @@
         <v>35.6</v>
       </c>
       <c r="D109">
-        <v>37.99999999999999</v>
+        <v>11.77011481772304</v>
       </c>
       <c r="E109">
-        <v>37.41657386773942</v>
+        <v>10.26309404006127</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>9.393286842850172</v>
       </c>
       <c r="G109">
-        <v>1882.589153110589</v>
+        <v>2047.726793895207</v>
       </c>
       <c r="H109">
         <v>14.53696474265712</v>
@@ -16630,16 +16630,16 @@
         <v>35.86</v>
       </c>
       <c r="D110">
-        <v>21.07130750570549</v>
+        <v>10.6479732810023</v>
       </c>
       <c r="E110">
-        <v>37.41657386773942</v>
+        <v>10.00364572978198</v>
       </c>
       <c r="F110">
-        <v>3.628445763382971</v>
+        <v>9.042584640842863</v>
       </c>
       <c r="G110">
-        <v>832.5277599234763</v>
+        <v>464.1470155631661</v>
       </c>
       <c r="H110">
         <v>8.498038763197584</v>
@@ -16653,16 +16653,16 @@
         <v>50.78</v>
       </c>
       <c r="D111">
-        <v>4.774934554525331</v>
+        <v>6.948998841139235</v>
       </c>
       <c r="E111">
-        <v>37.41657386773942</v>
+        <v>14.92113727676401</v>
       </c>
       <c r="F111">
-        <v>9.800098482952441</v>
+        <v>11.54280708452206</v>
       </c>
       <c r="G111">
-        <v>1621.102105519622</v>
+        <v>1431.373596523415</v>
       </c>
       <c r="H111">
         <v>10.57676171824192</v>
@@ -16676,16 +16676,16 @@
         <v>41.32</v>
       </c>
       <c r="D112">
-        <v>46.184412955022</v>
+        <v>17.45394805301533</v>
       </c>
       <c r="E112">
-        <v>37.41657386773942</v>
+        <v>9.718358062545128</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>9.634855586723114</v>
       </c>
       <c r="G112">
-        <v>2706.844617161709</v>
+        <v>3702.915230506143</v>
       </c>
       <c r="H112">
         <v>9.640569056700937</v>
@@ -16699,16 +16699,16 @@
         <v>31.52</v>
       </c>
       <c r="D113">
-        <v>0.9000000000000007</v>
+        <v>2.29157446497815</v>
       </c>
       <c r="E113">
-        <v>37.41657386773942</v>
+        <v>16.95497981447707</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>3.597841408157394</v>
       </c>
       <c r="G113">
-        <v>500.2523789490849</v>
+        <v>414.0125192106885</v>
       </c>
       <c r="H113">
         <v>2.148818532418666</v>
@@ -16722,16 +16722,16 @@
         <v>54.48</v>
       </c>
       <c r="D114">
-        <v>7.048404074682445</v>
+        <v>10.01188803784027</v>
       </c>
       <c r="E114">
-        <v>10.74709263010235</v>
+        <v>9.307748614466893</v>
       </c>
       <c r="F114">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G114">
-        <v>255.1243847774731</v>
+        <v>152.4978738355342</v>
       </c>
       <c r="H114">
         <v>117.9928016185246</v>
@@ -16745,16 +16745,16 @@
         <v>37.17</v>
       </c>
       <c r="D115">
-        <v>28.58321185591286</v>
+        <v>19.27154035599679</v>
       </c>
       <c r="E115">
-        <v>37.41657386773942</v>
+        <v>17.25080051987245</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>9.393286842850172</v>
       </c>
       <c r="G115">
-        <v>1216.975305106384</v>
+        <v>1250.157138425294</v>
       </c>
       <c r="H115">
         <v>27.6626177523507</v>
@@ -16768,16 +16768,16 @@
         <v>22.45</v>
       </c>
       <c r="D116">
-        <v>285.3068523537422</v>
+        <v>47.94150497723037</v>
       </c>
       <c r="E116">
-        <v>29.69848480983502</v>
+        <v>21.93938765277461</v>
       </c>
       <c r="F116">
-        <v>9.800098482952441</v>
+        <v>11.54280708452206</v>
       </c>
       <c r="G116">
-        <v>1688.021641273436</v>
+        <v>1902.351980594644</v>
       </c>
       <c r="H116">
         <v>10.57676171824192</v>
@@ -16791,16 +16791,16 @@
         <v>65.43000000000001</v>
       </c>
       <c r="D117">
-        <v>51.82663407939979</v>
+        <v>8.894431013774213</v>
       </c>
       <c r="E117">
-        <v>37.41657386773942</v>
+        <v>11.18962932635884</v>
       </c>
       <c r="F117">
-        <v>16.43167672515499</v>
+        <v>9.205093508419665</v>
       </c>
       <c r="G117">
-        <v>1843.521328658075</v>
+        <v>2102.821169763426</v>
       </c>
       <c r="H117">
         <v>16.00000000000001</v>
@@ -16814,16 +16814,16 @@
         <v>109.07</v>
       </c>
       <c r="D118">
-        <v>36.64696440361741</v>
+        <v>35.07178279992821</v>
       </c>
       <c r="E118">
-        <v>525.9695808694638</v>
+        <v>40.14170899790201</v>
       </c>
       <c r="F118">
-        <v>7.816648898345128</v>
+        <v>9.5799154483325</v>
       </c>
       <c r="G118">
-        <v>407.2246196596216</v>
+        <v>667.1412375142777</v>
       </c>
       <c r="H118">
         <v>11.32371348240197</v>
@@ -16837,16 +16837,16 @@
         <v>69.88</v>
       </c>
       <c r="D119">
-        <v>334.3650699460094</v>
+        <v>54.49163515211626</v>
       </c>
       <c r="E119">
-        <v>8.948742928478845</v>
+        <v>13.51780410174437</v>
       </c>
       <c r="F119">
-        <v>120.0000000000001</v>
+        <v>13.28572946679264</v>
       </c>
       <c r="G119">
-        <v>1424.677667121595</v>
+        <v>1388.841265675665</v>
       </c>
       <c r="H119">
         <v>5.25600220549474</v>
@@ -16860,16 +16860,16 @@
         <v>35.87</v>
       </c>
       <c r="D120">
-        <v>76.83749084919408</v>
+        <v>143.8014425354958</v>
       </c>
       <c r="E120">
-        <v>212.1320343559639</v>
+        <v>173.9692123925053</v>
       </c>
       <c r="F120">
-        <v>17.46049604742133</v>
+        <v>13.61270592502562</v>
       </c>
       <c r="G120">
-        <v>482.4640478611082</v>
+        <v>242.1785989647767</v>
       </c>
       <c r="H120">
         <v>79.58114415792782</v>
@@ -16883,16 +16883,16 @@
         <v>34.66</v>
       </c>
       <c r="D121">
-        <v>4.898979485566358</v>
+        <v>13.03157618824474</v>
       </c>
       <c r="E121">
-        <v>11.77285012220916</v>
+        <v>32.51314805168546</v>
       </c>
       <c r="F121">
-        <v>15.32162935939658</v>
+        <v>20.81893271953096</v>
       </c>
       <c r="G121">
-        <v>1152.406012904533</v>
+        <v>1112.18202505384</v>
       </c>
       <c r="H121">
         <v>8.439571416434585</v>
@@ -16906,16 +16906,16 @@
         <v>21.89</v>
       </c>
       <c r="D122">
-        <v>12.78671185254443</v>
+        <v>10.15031789564746</v>
       </c>
       <c r="E122">
-        <v>20.55237212586423</v>
+        <v>31.19940348476935</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>5.604414027174668</v>
       </c>
       <c r="G122">
-        <v>171.8443644413731</v>
+        <v>128.9084857552043</v>
       </c>
       <c r="H122">
         <v>2.256851542965392</v>
@@ -16929,16 +16929,16 @@
         <v>27.3</v>
       </c>
       <c r="D123">
-        <v>9.499473669630346</v>
+        <v>9.287543997621453</v>
       </c>
       <c r="E123">
-        <v>8.000000000000004</v>
+        <v>8.761216726686222</v>
       </c>
       <c r="F123">
-        <v>0.9000000000000007</v>
+        <v>1.499320587273849</v>
       </c>
       <c r="G123">
-        <v>63.14843359649861</v>
+        <v>77.18171462545448</v>
       </c>
       <c r="H123">
         <v>13.99078484859469</v>
@@ -16952,16 +16952,16 @@
         <v>21.42</v>
       </c>
       <c r="D124">
-        <v>13.1</v>
+        <v>8.512783286028158</v>
       </c>
       <c r="E124">
-        <v>9.082951062292478</v>
+        <v>16.17688271422131</v>
       </c>
       <c r="F124">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G124">
-        <v>209.0255022675354</v>
+        <v>153.7833778481076</v>
       </c>
       <c r="H124">
         <v>9.742773518765638</v>
@@ -16975,16 +16975,16 @@
         <v>61.16</v>
       </c>
       <c r="D125">
-        <v>9.507365565707479</v>
+        <v>9.271249602666929</v>
       </c>
       <c r="E125">
-        <v>9.082951062292478</v>
+        <v>16.07905767752183</v>
       </c>
       <c r="F125">
-        <v>17.46049604742133</v>
+        <v>12.12042859985513</v>
       </c>
       <c r="G125">
-        <v>138.8349969741609</v>
+        <v>195.9219914974988</v>
       </c>
       <c r="H125">
         <v>9.499999999999996</v>
@@ -16998,16 +16998,16 @@
         <v>37.15</v>
       </c>
       <c r="D126">
-        <v>28.58321185591286</v>
+        <v>18.79585347405602</v>
       </c>
       <c r="E126">
-        <v>9.165151389911683</v>
+        <v>15.09470307404768</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>9.393286842850172</v>
       </c>
       <c r="G126">
-        <v>968.4397950513545</v>
+        <v>1061.463522172275</v>
       </c>
       <c r="H126">
         <v>30.446650444081</v>
@@ -17021,16 +17021,16 @@
         <v>52.78</v>
       </c>
       <c r="D127">
-        <v>12.13260071048249</v>
+        <v>22.3868349298359</v>
       </c>
       <c r="E127">
-        <v>15.94365077389743</v>
+        <v>41.37498365292919</v>
       </c>
       <c r="F127">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G127">
-        <v>127.8270151105468</v>
+        <v>200.4320318634552</v>
       </c>
       <c r="H127">
         <v>31.96289971147482</v>
@@ -17044,16 +17044,16 @@
         <v>23.14</v>
       </c>
       <c r="D128">
-        <v>32.18695387886217</v>
+        <v>64.43473823042294</v>
       </c>
       <c r="E128">
-        <v>25.09980079602228</v>
+        <v>27.17374778389078</v>
       </c>
       <c r="F128">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G128">
-        <v>403.3283006149226</v>
+        <v>360.6686414156262</v>
       </c>
       <c r="H128">
         <v>136.6521384980468</v>
@@ -17067,16 +17067,16 @@
         <v>39.03</v>
       </c>
       <c r="D129">
-        <v>4.898979485566358</v>
+        <v>11.12351304938</v>
       </c>
       <c r="E129">
-        <v>14.00000000000001</v>
+        <v>37.66182827781271</v>
       </c>
       <c r="F129">
-        <v>15.32162935939658</v>
+        <v>20.81893271953096</v>
       </c>
       <c r="G129">
-        <v>298.5123013177512</v>
+        <v>330.6669278217551</v>
       </c>
       <c r="H129">
         <v>9.091252714284106</v>
@@ -17090,16 +17090,16 @@
         <v>37.72</v>
       </c>
       <c r="D130">
-        <v>7.756287771866134</v>
+        <v>14.41693148749908</v>
       </c>
       <c r="E130">
-        <v>12.86856635371634</v>
+        <v>9.816031855204598</v>
       </c>
       <c r="F130">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G130">
-        <v>37.60392660509571</v>
+        <v>38.36837757041563</v>
       </c>
       <c r="H130">
         <v>8.570441156096924</v>
@@ -17113,16 +17113,16 @@
         <v>42.5</v>
       </c>
       <c r="D131">
-        <v>7.293833011524189</v>
+        <v>7.992237608797614</v>
       </c>
       <c r="E131">
-        <v>17.32050807568877</v>
+        <v>12.09359774027308</v>
       </c>
       <c r="F131">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G131">
-        <v>1067.015518894554</v>
+        <v>1114.393739100355</v>
       </c>
       <c r="H131">
         <v>13.4164941316667</v>
@@ -17136,16 +17136,16 @@
         <v>40.18</v>
       </c>
       <c r="D132">
-        <v>243.4255533012097</v>
+        <v>659.0503940387767</v>
       </c>
       <c r="E132">
-        <v>1219.344085974096</v>
+        <v>570.6336477549689</v>
       </c>
       <c r="F132">
-        <v>648.4905550584367</v>
+        <v>676.2404240692639</v>
       </c>
       <c r="G132">
-        <v>1627.825524342056</v>
+        <v>1097.740945644101</v>
       </c>
       <c r="H132">
         <v>238.8511704485671</v>
@@ -17159,16 +17159,16 @@
         <v>55.36</v>
       </c>
       <c r="D133">
-        <v>285.3068523537422</v>
+        <v>30.50839285762417</v>
       </c>
       <c r="E133">
-        <v>5.422176684690386</v>
+        <v>4.834152246967744</v>
       </c>
       <c r="F133">
-        <v>1.100000000000001</v>
+        <v>2.724912254778153</v>
       </c>
       <c r="G133">
-        <v>72.22107246147124</v>
+        <v>119.3531488042087</v>
       </c>
       <c r="H133">
         <v>9.434639060879125</v>
@@ -17182,16 +17182,16 @@
         <v>40.19</v>
       </c>
       <c r="D134">
-        <v>8.712060605849809</v>
+        <v>14.48907871074916</v>
       </c>
       <c r="E134">
-        <v>23.67910471280536</v>
+        <v>11.13159366368072</v>
       </c>
       <c r="F134">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G134">
-        <v>4132.040276587439</v>
+        <v>5144.763581168679</v>
       </c>
       <c r="H134">
         <v>13.04332678796752</v>
@@ -17205,16 +17205,16 @@
         <v>32.46</v>
       </c>
       <c r="D135">
-        <v>37.99999999999999</v>
+        <v>18.51766362581335</v>
       </c>
       <c r="E135">
-        <v>20.83266665599967</v>
+        <v>15.72931023261403</v>
       </c>
       <c r="F135">
-        <v>26.99999999999998</v>
+        <v>8.869165171122098</v>
       </c>
       <c r="G135">
-        <v>400.1548709548605</v>
+        <v>332.7829095929521</v>
       </c>
       <c r="H135">
         <v>13.29879952230195</v>
@@ -17228,16 +17228,16 @@
         <v>47.41</v>
       </c>
       <c r="D136">
-        <v>4.690415759823432</v>
+        <v>8.396556590161071</v>
       </c>
       <c r="E136">
-        <v>9.082951062292478</v>
+        <v>16.35683090773179</v>
       </c>
       <c r="F136">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G136">
-        <v>341.6896278155945</v>
+        <v>448.8558825242053</v>
       </c>
       <c r="H136">
         <v>9.793255111750073</v>
@@ -17251,16 +17251,16 @@
         <v>24.37</v>
       </c>
       <c r="D137">
-        <v>285.3068523537422</v>
+        <v>61.04473527093973</v>
       </c>
       <c r="E137">
-        <v>26.45751311064591</v>
+        <v>26.92604754783264</v>
       </c>
       <c r="F137">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G137">
-        <v>248.6352495770043</v>
+        <v>175.4410924469737</v>
       </c>
       <c r="H137">
         <v>9.869470279083831</v>
@@ -17274,16 +17274,16 @@
         <v>55.1</v>
       </c>
       <c r="D138">
-        <v>12.84523257866514</v>
+        <v>14.90882709195736</v>
       </c>
       <c r="E138">
-        <v>13.04223907157051</v>
+        <v>15.9935692165897</v>
       </c>
       <c r="F138">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G138">
-        <v>1801.167566710205</v>
+        <v>1680.576300080416</v>
       </c>
       <c r="H138">
         <v>8.921288934106611</v>
@@ -17297,16 +17297,16 @@
         <v>22.43</v>
       </c>
       <c r="D139">
-        <v>8.905054744357278</v>
+        <v>8.43607374183425</v>
       </c>
       <c r="E139">
-        <v>6.200000000000006</v>
+        <v>9.266444458989426</v>
       </c>
       <c r="F139">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G139">
-        <v>10.96043169458081</v>
+        <v>15.84065569439963</v>
       </c>
       <c r="H139">
         <v>9.869470279083831</v>
@@ -17320,16 +17320,16 @@
         <v>19.97</v>
       </c>
       <c r="D140">
-        <v>12.84523257866514</v>
+        <v>9.189175080221403</v>
       </c>
       <c r="E140">
-        <v>6.200000000000006</v>
+        <v>8.146812420813497</v>
       </c>
       <c r="F140">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G140">
-        <v>24.5808300894557</v>
+        <v>26.62364033197436</v>
       </c>
       <c r="H140">
         <v>9.869470279083831</v>
@@ -17343,16 +17343,16 @@
         <v>20.76</v>
       </c>
       <c r="D141">
-        <v>4.690415759823432</v>
+        <v>7.6838926153075</v>
       </c>
       <c r="E141">
-        <v>8.397618710086814</v>
+        <v>20.62048092755645</v>
       </c>
       <c r="F141">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G141">
-        <v>352.1959862259365</v>
+        <v>419.0969141608683</v>
       </c>
       <c r="H141">
         <v>10.57676171824192</v>
@@ -17366,16 +17366,16 @@
         <v>34.04</v>
       </c>
       <c r="D142">
-        <v>252.4282076155513</v>
+        <v>588.4842411677563</v>
       </c>
       <c r="E142">
-        <v>707.9999999999998</v>
+        <v>739.3028788488101</v>
       </c>
       <c r="F142">
-        <v>134.3874994186586</v>
+        <v>93.63573294337029</v>
       </c>
       <c r="G142">
-        <v>2610.924572827372</v>
+        <v>2946.86134273788</v>
       </c>
       <c r="H142">
         <v>100.3868052214356</v>
@@ -17389,16 +17389,16 @@
         <v>28.15</v>
       </c>
       <c r="D143">
-        <v>10.11928851253882</v>
+        <v>24.11517836738276</v>
       </c>
       <c r="E143">
-        <v>31.3687742827162</v>
+        <v>63.28158583424752</v>
       </c>
       <c r="F143">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G143">
-        <v>288.320927734611</v>
+        <v>297.8069597557952</v>
       </c>
       <c r="H143">
         <v>48.9931963342641</v>
@@ -17412,16 +17412,16 @@
         <v>54.74</v>
       </c>
       <c r="D144">
-        <v>4354.29787681091</v>
+        <v>2646.140919829921</v>
       </c>
       <c r="E144">
-        <v>962.2785459522631</v>
+        <v>2677.816408732244</v>
       </c>
       <c r="F144">
-        <v>102.469507659596</v>
+        <v>343.9548111500075</v>
       </c>
       <c r="G144">
-        <v>1045.118082663604</v>
+        <v>887.1061273698029</v>
       </c>
       <c r="H144">
         <v>2292.060422554829</v>
@@ -17435,16 +17435,16 @@
         <v>60.36</v>
       </c>
       <c r="D145">
-        <v>334.3650699460094</v>
+        <v>229.7395022947623</v>
       </c>
       <c r="E145">
-        <v>561.2486080160915</v>
+        <v>453.7278097519231</v>
       </c>
       <c r="F145">
-        <v>120.0000000000001</v>
+        <v>13.28572946679264</v>
       </c>
       <c r="G145">
-        <v>16001.2324351413</v>
+        <v>16209.63880738317</v>
       </c>
       <c r="H145">
         <v>2.78228613080436</v>
@@ -17458,16 +17458,16 @@
         <v>39.61</v>
       </c>
       <c r="D146">
-        <v>23.10241392645936</v>
+        <v>15.87418558510003</v>
       </c>
       <c r="E146">
-        <v>12.29634091915153</v>
+        <v>29.38942830261378</v>
       </c>
       <c r="F146">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G146">
-        <v>964.264289391827</v>
+        <v>1400.336808452402</v>
       </c>
       <c r="H146">
         <v>8.179285411320542</v>
@@ -17481,16 +17481,16 @@
         <v>21.41</v>
       </c>
       <c r="D147">
-        <v>259.7806767255794</v>
+        <v>391.0539342681295</v>
       </c>
       <c r="E147">
-        <v>311.7691453623976</v>
+        <v>300.0233464789667</v>
       </c>
       <c r="F147">
-        <v>835.8702052352389</v>
+        <v>443.2068567161254</v>
       </c>
       <c r="G147">
-        <v>4354.124664979535</v>
+        <v>3859.227655890442</v>
       </c>
       <c r="H147">
         <v>125.2904180695402</v>
@@ -17504,16 +17504,16 @@
         <v>23.68</v>
       </c>
       <c r="D148">
-        <v>160.9347693943108</v>
+        <v>67.33832937721405</v>
       </c>
       <c r="E148">
-        <v>61.41661013113624</v>
+        <v>60.88503151429424</v>
       </c>
       <c r="F148">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G148">
-        <v>532.283709129561</v>
+        <v>769.7802561021746</v>
       </c>
       <c r="H148">
         <v>32.49112183528948</v>
@@ -17527,16 +17527,16 @@
         <v>61.08</v>
       </c>
       <c r="D149">
-        <v>334.3650699460094</v>
+        <v>48.01465126806678</v>
       </c>
       <c r="E149">
-        <v>519.6152422706634</v>
+        <v>408.8776948088665</v>
       </c>
       <c r="F149">
-        <v>120.0000000000001</v>
+        <v>13.28572946679264</v>
       </c>
       <c r="G149">
-        <v>4461.407259223668</v>
+        <v>3920.090088798839</v>
       </c>
       <c r="H149">
         <v>10.96961310486525</v>
@@ -17550,16 +17550,16 @@
         <v>96.59999999999999</v>
       </c>
       <c r="D150">
-        <v>31.86220331364418</v>
+        <v>19.48426453815457</v>
       </c>
       <c r="E150">
-        <v>14.49137674618944</v>
+        <v>32.84467501925006</v>
       </c>
       <c r="F150">
-        <v>26.99999999999998</v>
+        <v>20.17928705806437</v>
       </c>
       <c r="G150">
-        <v>1201.198506250439</v>
+        <v>1002.645336279891</v>
       </c>
       <c r="H150">
         <v>30.446650444081</v>
@@ -17573,16 +17573,16 @@
         <v>78.43000000000001</v>
       </c>
       <c r="D151">
-        <v>11.00000000000001</v>
+        <v>41.08322261906513</v>
       </c>
       <c r="E151">
-        <v>110.1122608976857</v>
+        <v>67.34798266717348</v>
       </c>
       <c r="F151">
-        <v>45.52905695931094</v>
+        <v>23.03991334723404</v>
       </c>
       <c r="G151">
-        <v>16.54739912380346</v>
+        <v>17.86403517245047</v>
       </c>
       <c r="H151">
         <v>23.24288540165035</v>
@@ -17596,16 +17596,16 @@
         <v>46.58</v>
       </c>
       <c r="D152">
-        <v>10.89954127475098</v>
+        <v>10.20799189844674</v>
       </c>
       <c r="E152">
-        <v>11.2374374303041</v>
+        <v>14.51216787622701</v>
       </c>
       <c r="F152">
-        <v>3.628445763382971</v>
+        <v>10.46798087809892</v>
       </c>
       <c r="G152">
-        <v>221.3995702481974</v>
+        <v>171.7838379394253</v>
       </c>
       <c r="H152">
         <v>8.498038763197584</v>
@@ -17619,16 +17619,16 @@
         <v>67.68000000000001</v>
       </c>
       <c r="D153">
-        <v>13.1</v>
+        <v>13.78785131106698</v>
       </c>
       <c r="E153">
-        <v>10.98180313063389</v>
+        <v>15.46099369593627</v>
       </c>
       <c r="F153">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G153">
-        <v>17.64904407635023</v>
+        <v>22.31188796576568</v>
       </c>
       <c r="H153">
         <v>8.921288934106611</v>
@@ -17642,16 +17642,16 @@
         <v>72.68000000000001</v>
       </c>
       <c r="D154">
-        <v>13.04990421420788</v>
+        <v>12.5692893993166</v>
       </c>
       <c r="E154">
-        <v>84.85281374238575</v>
+        <v>13.64423496236014</v>
       </c>
       <c r="F154">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G154">
-        <v>231.3291143946668</v>
+        <v>168.6765868841012</v>
       </c>
       <c r="H154">
         <v>7.98362274607246</v>
@@ -17665,16 +17665,16 @@
         <v>21.36</v>
       </c>
       <c r="D155">
-        <v>13.1</v>
+        <v>13.55408147581689</v>
       </c>
       <c r="E155">
-        <v>13.3</v>
+        <v>14.79986817901025</v>
       </c>
       <c r="F155">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G155">
-        <v>15.68947808905325</v>
+        <v>20.96747584034229</v>
       </c>
       <c r="H155">
         <v>12.00000000000001</v>
@@ -17688,16 +17688,16 @@
         <v>21.24</v>
       </c>
       <c r="D156">
-        <v>13.1</v>
+        <v>9.376111052139061</v>
       </c>
       <c r="E156">
-        <v>9.082951062292478</v>
+        <v>14.84901005792717</v>
       </c>
       <c r="F156">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G156">
-        <v>370.9171799368053</v>
+        <v>306.5480433349255</v>
       </c>
       <c r="H156">
         <v>8.699999999999994</v>
@@ -17711,16 +17711,16 @@
         <v>67.48</v>
       </c>
       <c r="D157">
-        <v>11.21427661510097</v>
+        <v>9.316529108205101</v>
       </c>
       <c r="E157">
-        <v>6.287288763847267</v>
+        <v>10.20019716368092</v>
       </c>
       <c r="F157">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G157">
-        <v>26.55897379840078</v>
+        <v>19.98363802055115</v>
       </c>
       <c r="H157">
         <v>8.310447964274267</v>
@@ -17734,16 +17734,16 @@
         <v>54.15</v>
       </c>
       <c r="D158">
-        <v>13.04990421420788</v>
+        <v>12.72761404614756</v>
       </c>
       <c r="E158">
-        <v>32.31176256411901</v>
+        <v>33.06333831657317</v>
       </c>
       <c r="F158">
-        <v>2.81069386451104</v>
+        <v>130.395723629574</v>
       </c>
       <c r="G158">
-        <v>103.404041262859</v>
+        <v>90.04631418914447</v>
       </c>
       <c r="H158">
         <v>13.96731149031459</v>
@@ -17757,16 +17757,16 @@
         <v>85.54000000000001</v>
       </c>
       <c r="D159">
-        <v>30.38996544914127</v>
+        <v>9.635334327700077</v>
       </c>
       <c r="E159">
-        <v>6.870225614927072</v>
+        <v>12.56454832295533</v>
       </c>
       <c r="F159">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G159">
-        <v>57.77661496954443</v>
+        <v>92.63373860013546</v>
       </c>
       <c r="H159">
         <v>9.091252714284106</v>
@@ -17780,16 +17780,16 @@
         <v>53.03</v>
       </c>
       <c r="D160">
-        <v>4.774934554525331</v>
+        <v>6.738307013961617</v>
       </c>
       <c r="E160">
-        <v>11.77285012220916</v>
+        <v>11.50485063430414</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>8.763690235646591</v>
       </c>
       <c r="G160">
-        <v>1433.772275655843</v>
+        <v>1339.412723117598</v>
       </c>
       <c r="H160">
         <v>12.02932641985575</v>
@@ -17803,16 +17803,16 @@
         <v>99.44</v>
       </c>
       <c r="D161">
-        <v>10.02197585309403</v>
+        <v>16.78127822061875</v>
       </c>
       <c r="E161">
-        <v>8.494704232638108</v>
+        <v>30.9383288366468</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>5.604414027174668</v>
       </c>
       <c r="G161">
-        <v>261.2500258308845</v>
+        <v>285.6920130279405</v>
       </c>
       <c r="H161">
         <v>102.2834611704432</v>
@@ -17826,16 +17826,16 @@
         <v>90.58</v>
       </c>
       <c r="D162">
-        <v>13.04990421420788</v>
+        <v>12.94805211894266</v>
       </c>
       <c r="E162">
-        <v>39.84469851812155</v>
+        <v>19.49263492602492</v>
       </c>
       <c r="F162">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G162">
-        <v>34.26410089907846</v>
+        <v>26.0002847866502</v>
       </c>
       <c r="H162">
         <v>9.296773073994924</v>
@@ -17849,16 +17849,16 @@
         <v>20.15</v>
       </c>
       <c r="D163">
-        <v>31.96560651700517</v>
+        <v>22.10242728534475</v>
       </c>
       <c r="E163">
-        <v>27.16615541441221</v>
+        <v>35.64167835250436</v>
       </c>
       <c r="F163">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G163">
-        <v>724.1497350162076</v>
+        <v>727.927806853844</v>
       </c>
       <c r="H163">
         <v>16.53223450611422</v>
@@ -17872,16 +17872,16 @@
         <v>59.33</v>
       </c>
       <c r="D164">
-        <v>266.0413501694799</v>
+        <v>494.1485083654352</v>
       </c>
       <c r="E164">
-        <v>38.75925695882214</v>
+        <v>90.56053050051294</v>
       </c>
       <c r="F164">
-        <v>134.3874994186586</v>
+        <v>83.11679359845931</v>
       </c>
       <c r="G164">
-        <v>773.8642340023251</v>
+        <v>750.9707119503616</v>
       </c>
       <c r="H164">
         <v>5.25600220549474</v>
@@ -17895,16 +17895,16 @@
         <v>19.87</v>
       </c>
       <c r="D165">
-        <v>13.1</v>
+        <v>10.74763824192711</v>
       </c>
       <c r="E165">
-        <v>10.69579356569676</v>
+        <v>11.94987944205094</v>
       </c>
       <c r="F165">
-        <v>17.46049604742133</v>
+        <v>12.12042859985513</v>
       </c>
       <c r="G165">
-        <v>23.17145936579869</v>
+        <v>25.42562637622348</v>
       </c>
       <c r="H165">
         <v>10.44078535706618</v>
@@ -17918,16 +17918,16 @@
         <v>27.49</v>
       </c>
       <c r="D166">
-        <v>9.724710792614877</v>
+        <v>36.95117376898203</v>
       </c>
       <c r="E166">
-        <v>3406.053434695355</v>
+        <v>564.0498778069842</v>
       </c>
       <c r="F166">
-        <v>1015.874007936023</v>
+        <v>177.2543199750936</v>
       </c>
       <c r="G166">
-        <v>1051.998816584696</v>
+        <v>1132.648143354384</v>
       </c>
       <c r="H166">
         <v>228.9352168279874</v>
@@ -17941,16 +17941,16 @@
         <v>51.18</v>
       </c>
       <c r="D167">
-        <v>270.3701166919151</v>
+        <v>763.2746909592294</v>
       </c>
       <c r="E167">
-        <v>986.1034428496829</v>
+        <v>489.0153356821577</v>
       </c>
       <c r="F167">
-        <v>1713.177749096688</v>
+        <v>790.3789155165107</v>
       </c>
       <c r="G167">
-        <v>3330.345442077036</v>
+        <v>1427.172556247218</v>
       </c>
       <c r="H167">
         <v>114.9539828489723</v>
@@ -17964,16 +17964,16 @@
         <v>33.61</v>
       </c>
       <c r="D168">
-        <v>0.9000000000000007</v>
+        <v>1.366150342394265</v>
       </c>
       <c r="E168">
-        <v>7.589466384404115</v>
+        <v>13.06434439502641</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>3.597841408157394</v>
       </c>
       <c r="G168">
-        <v>171.8443644413731</v>
+        <v>125.4857192488136</v>
       </c>
       <c r="H168">
         <v>2.318502303273319</v>
@@ -17987,16 +17987,16 @@
         <v>89.61</v>
       </c>
       <c r="D169">
-        <v>13.04990421420788</v>
+        <v>12.98974970279532</v>
       </c>
       <c r="E169">
-        <v>26.56313234541441</v>
+        <v>20.01917250710106</v>
       </c>
       <c r="F169">
-        <v>0.9000000000000007</v>
+        <v>1.448637334282607</v>
       </c>
       <c r="G169">
-        <v>76.62902623202987</v>
+        <v>71.77537568041554</v>
       </c>
       <c r="H169">
         <v>5.400000000000007</v>
@@ -18010,16 +18010,16 @@
         <v>39.12</v>
       </c>
       <c r="D170">
-        <v>11.79406630471442</v>
+        <v>12.38203361109775</v>
       </c>
       <c r="E170">
-        <v>10.69579356569676</v>
+        <v>11.64127047264608</v>
       </c>
       <c r="F170">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G170">
-        <v>77.02938562135758</v>
+        <v>102.4725683990001</v>
       </c>
       <c r="H170">
         <v>10.73874791641453</v>
@@ -18033,16 +18033,16 @@
         <v>39.24</v>
       </c>
       <c r="D171">
-        <v>10.84988479201506</v>
+        <v>14.40144870417669</v>
       </c>
       <c r="E171">
-        <v>27.98571063953892</v>
+        <v>11.54078007557706</v>
       </c>
       <c r="F171">
-        <v>3.628445763382971</v>
+        <v>9.042584640842863</v>
       </c>
       <c r="G171">
-        <v>31.61325796627796</v>
+        <v>36.48606770838749</v>
       </c>
       <c r="H171">
         <v>12.02932641985575</v>
@@ -18056,16 +18056,16 @@
         <v>81.29000000000001</v>
       </c>
       <c r="D172">
-        <v>40.86318636621481</v>
+        <v>65.13851615571626</v>
       </c>
       <c r="E172">
-        <v>110.1122608976857</v>
+        <v>110.8994655389426</v>
       </c>
       <c r="F172">
-        <v>39.71145930332947</v>
+        <v>92.07600044866658</v>
       </c>
       <c r="G172">
-        <v>26.91797786237711</v>
+        <v>23.22514698006676</v>
       </c>
       <c r="H172">
         <v>82.72242417138129</v>
@@ -18079,16 +18079,16 @@
         <v>67.56999999999999</v>
       </c>
       <c r="D173">
-        <v>10.89954127475098</v>
+        <v>20.86891314912962</v>
       </c>
       <c r="E173">
-        <v>11.77285012220916</v>
+        <v>16.06021010422253</v>
       </c>
       <c r="F173">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G173">
-        <v>397.8149617222716</v>
+        <v>464.5332445179254</v>
       </c>
       <c r="H173">
         <v>14.53696474265712</v>
@@ -18102,16 +18102,16 @@
         <v>22.94</v>
       </c>
       <c r="D174">
-        <v>640.0781202322099</v>
+        <v>531.3386916359042</v>
       </c>
       <c r="E174">
-        <v>1128.893263333606</v>
+        <v>513.9120712725272</v>
       </c>
       <c r="F174">
-        <v>113.0000000000001</v>
+        <v>65.10945297626219</v>
       </c>
       <c r="G174">
-        <v>424.6594467626807</v>
+        <v>330.1933554445807</v>
       </c>
       <c r="H174">
         <v>125.2904180695402</v>
@@ -18125,16 +18125,16 @@
         <v>49.49</v>
       </c>
       <c r="D175">
-        <v>9.400000000000011</v>
+        <v>9.519277148511289</v>
       </c>
       <c r="E175">
-        <v>6.260990336999414</v>
+        <v>9.306126694247116</v>
       </c>
       <c r="F175">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G175">
-        <v>51.43356830342585</v>
+        <v>40.36699028521456</v>
       </c>
       <c r="H175">
         <v>8.699999999999994</v>
@@ -18148,16 +18148,16 @@
         <v>32.22</v>
       </c>
       <c r="D176">
-        <v>4354.29787681091</v>
+        <v>316.5401182278673</v>
       </c>
       <c r="E176">
-        <v>1112.294924918746</v>
+        <v>994.48048581156</v>
       </c>
       <c r="F176">
-        <v>134.3874994186586</v>
+        <v>265.7341425763375</v>
       </c>
       <c r="G176">
-        <v>26248.08998282262</v>
+        <v>17945.83842728391</v>
       </c>
       <c r="H176">
         <v>1055.562318618822</v>
@@ -18171,16 +18171,16 @@
         <v>55.74</v>
       </c>
       <c r="D177">
-        <v>3349.940297975477</v>
+        <v>1061.247403682832</v>
       </c>
       <c r="E177">
-        <v>969.329665284211</v>
+        <v>1533.926891122478</v>
       </c>
       <c r="F177">
-        <v>425.0000000000001</v>
+        <v>592.2340524135809</v>
       </c>
       <c r="G177">
-        <v>12521.07191645662</v>
+        <v>8884.219885319828</v>
       </c>
       <c r="H177">
         <v>1008.579763794384</v>
@@ -18194,16 +18194,16 @@
         <v>64.15000000000001</v>
       </c>
       <c r="D178">
-        <v>2950.237278593034</v>
+        <v>1963.484234400799</v>
       </c>
       <c r="E178">
-        <v>300.5162225238429</v>
+        <v>2890.205397228704</v>
       </c>
       <c r="F178">
-        <v>865.072565083856</v>
+        <v>803.0063712974891</v>
       </c>
       <c r="G178">
-        <v>16001.2324351413</v>
+        <v>12855.96137023041</v>
       </c>
       <c r="H178">
         <v>2110.336218892875</v>
@@ -18217,16 +18217,16 @@
         <v>54.95</v>
       </c>
       <c r="D179">
-        <v>14041.46277992433</v>
+        <v>2647.090707818279</v>
       </c>
       <c r="E179">
-        <v>8417.999999999993</v>
+        <v>5959.74545569843</v>
       </c>
       <c r="F179">
-        <v>923.168027207347</v>
+        <v>1083.060681089178</v>
       </c>
       <c r="G179">
-        <v>2485.021642270809</v>
+        <v>2055.544392491249</v>
       </c>
       <c r="H179">
         <v>4374.773042014807</v>
@@ -18240,16 +18240,16 @@
         <v>71.29000000000001</v>
       </c>
       <c r="D180">
-        <v>2999.004834941084</v>
+        <v>1223.832281689226</v>
       </c>
       <c r="E180">
-        <v>1033.102124671128</v>
+        <v>970.3241971846884</v>
       </c>
       <c r="F180">
-        <v>45.13313638558706</v>
+        <v>233.4808789960222</v>
       </c>
       <c r="G180">
-        <v>15459.19679053581</v>
+        <v>11533.83011409969</v>
       </c>
       <c r="H180">
         <v>4259.023504129775</v>
@@ -18263,16 +18263,16 @@
         <v>71.31</v>
       </c>
       <c r="D181">
-        <v>15943.82334949811</v>
+        <v>1772.816248871021</v>
       </c>
       <c r="E181">
-        <v>962.2785459522631</v>
+        <v>5522.77271785035</v>
       </c>
       <c r="F181">
-        <v>923.168027207347</v>
+        <v>717.7748033807324</v>
       </c>
       <c r="G181">
-        <v>966.974841103087</v>
+        <v>1553.425204463353</v>
       </c>
       <c r="H181">
         <v>4524.591035530016</v>
@@ -18286,16 +18286,16 @@
         <v>39.74</v>
       </c>
       <c r="D182">
-        <v>834.4531143209904</v>
+        <v>1077.713530745169</v>
       </c>
       <c r="E182">
-        <v>1652.271164185831</v>
+        <v>368.507201277696</v>
       </c>
       <c r="F182">
-        <v>102.469507659596</v>
+        <v>237.5562498119623</v>
       </c>
       <c r="G182">
-        <v>2465.886009797205</v>
+        <v>2051.494925123542</v>
       </c>
       <c r="H182">
         <v>497.1126200365338</v>
@@ -18309,16 +18309,16 @@
         <v>74.09</v>
       </c>
       <c r="D183">
-        <v>15943.82334949811</v>
+        <v>2082.433186353449</v>
       </c>
       <c r="E183">
-        <v>300.5162225238429</v>
+        <v>3679.714850721954</v>
       </c>
       <c r="F183">
-        <v>3299.572666273474</v>
+        <v>1689.358638080361</v>
       </c>
       <c r="G183">
-        <v>11804.18681977819</v>
+        <v>9091.245000197492</v>
       </c>
       <c r="H183">
         <v>4679.539679473361</v>
@@ -18332,16 +18332,16 @@
         <v>80.55</v>
       </c>
       <c r="D184">
-        <v>4247.64581856821</v>
+        <v>1429.760037812843</v>
       </c>
       <c r="E184">
-        <v>440.0000000000005</v>
+        <v>1083.243814914488</v>
       </c>
       <c r="F184">
-        <v>195.9591794226544</v>
+        <v>318.620293990782</v>
       </c>
       <c r="G184">
-        <v>1601.428237653217</v>
+        <v>1557.696957644795</v>
       </c>
       <c r="H184">
         <v>879.6312065631284</v>
@@ -18355,16 +18355,16 @@
         <v>67.53</v>
       </c>
       <c r="D185">
-        <v>6.465291950097847</v>
+        <v>7.0184614877819</v>
       </c>
       <c r="E185">
-        <v>31.74901573277511</v>
+        <v>12.19662810873258</v>
       </c>
       <c r="F185">
-        <v>6.320601237224211</v>
+        <v>7.361318131006248</v>
       </c>
       <c r="G185">
-        <v>2625.899404277762</v>
+        <v>2427.85679756195</v>
       </c>
       <c r="H185">
         <v>2.976257030638661</v>
@@ -18378,16 +18378,16 @@
         <v>28.48</v>
       </c>
       <c r="D186">
-        <v>684.1213342675402</v>
+        <v>419.5505849361559</v>
       </c>
       <c r="E186">
-        <v>727.7252228691813</v>
+        <v>661.5090006241085</v>
       </c>
       <c r="F186">
-        <v>1636.66806260019</v>
+        <v>767.0846491904653</v>
       </c>
       <c r="G186">
-        <v>2267.119007468036</v>
+        <v>1186.499797244549</v>
       </c>
       <c r="H186">
         <v>492.6368056823282</v>
@@ -18401,16 +18401,16 @@
         <v>75.31</v>
       </c>
       <c r="D187">
-        <v>15.83982323133691</v>
+        <v>46.1737793134926</v>
       </c>
       <c r="E187">
-        <v>3406.053434695355</v>
+        <v>263.0492510565832</v>
       </c>
       <c r="F187">
-        <v>134.3874994186586</v>
+        <v>164.8735870019018</v>
       </c>
       <c r="G187">
-        <v>1947.347990133969</v>
+        <v>1568.298670477399</v>
       </c>
       <c r="H187">
         <v>226.5202726373652</v>
@@ -18424,16 +18424,16 @@
         <v>29.87</v>
       </c>
       <c r="D188">
-        <v>4515.196562720173</v>
+        <v>756.4331208887623</v>
       </c>
       <c r="E188">
-        <v>336.7640123291084</v>
+        <v>1172.242622535461</v>
       </c>
       <c r="F188">
-        <v>45.13313638558706</v>
+        <v>233.4808789960222</v>
       </c>
       <c r="G188">
-        <v>13363.66894155839</v>
+        <v>12858.63395481126</v>
       </c>
       <c r="H188">
         <v>1968.089439222941</v>
@@ -18447,16 +18447,16 @@
         <v>25.47</v>
       </c>
       <c r="D189">
-        <v>19.98999749874923</v>
+        <v>26.30130115854787</v>
       </c>
       <c r="E189">
-        <v>990.7774724931942</v>
+        <v>36.61350724075053</v>
       </c>
       <c r="F189">
-        <v>10</v>
+        <v>9.634855586723114</v>
       </c>
       <c r="G189">
-        <v>184.2125931422724</v>
+        <v>130.1189974809259</v>
       </c>
       <c r="H189">
         <v>25.54310586904234</v>
@@ -18470,16 +18470,16 @@
         <v>76.5</v>
       </c>
       <c r="D190">
-        <v>2.078460969082654</v>
+        <v>4.849964623901617</v>
       </c>
       <c r="E190">
-        <v>15.87450786638755</v>
+        <v>29.59366443680676</v>
       </c>
       <c r="F190">
-        <v>3.628445763382971</v>
+        <v>8.433192653989879</v>
       </c>
       <c r="G190">
-        <v>171.8443644413731</v>
+        <v>125.4857192488136</v>
       </c>
       <c r="H190">
         <v>4.408694927674247</v>
@@ -18493,16 +18493,16 @@
         <v>59.81</v>
       </c>
       <c r="D191">
-        <v>847.2543891889848</v>
+        <v>2704.988582646678</v>
       </c>
       <c r="E191">
-        <v>1031</v>
+        <v>754.6494100278574</v>
       </c>
       <c r="F191">
-        <v>774.5966692414835</v>
+        <v>419.9191482075564</v>
       </c>
       <c r="G191">
-        <v>16859.0629365811</v>
+        <v>11157.3242202579</v>
       </c>
       <c r="H191">
         <v>497.1126200365338</v>
@@ -18516,16 +18516,16 @@
         <v>87.88</v>
       </c>
       <c r="D192">
-        <v>158.6190404711869</v>
+        <v>16.70193779635239</v>
       </c>
       <c r="E192">
-        <v>25.92296279363146</v>
+        <v>17.93391837430454</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>5.604414027174668</v>
       </c>
       <c r="G192">
-        <v>157.1860118095174</v>
+        <v>121.7276334552655</v>
       </c>
       <c r="H192">
         <v>4.141983848540939</v>
@@ -18539,16 +18539,16 @@
         <v>64.7</v>
       </c>
       <c r="D193">
-        <v>15.83982323133691</v>
+        <v>11.45274740178533</v>
       </c>
       <c r="E193">
-        <v>385.2000000000004</v>
+        <v>81.5819608847153</v>
       </c>
       <c r="F193">
-        <v>1015.874007936023</v>
+        <v>131.4977996203012</v>
       </c>
       <c r="G193">
-        <v>380.4877913025567</v>
+        <v>276.4700292842667</v>
       </c>
       <c r="H193">
         <v>10.47537692094992</v>
@@ -18562,16 +18562,16 @@
         <v>58.38</v>
       </c>
       <c r="D194">
-        <v>13.04990421420788</v>
+        <v>10.79147913079097</v>
       </c>
       <c r="E194">
-        <v>32.31176256411901</v>
+        <v>16.60302568082965</v>
       </c>
       <c r="F194">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G194">
-        <v>173.4763069910615</v>
+        <v>130.1989848686304</v>
       </c>
       <c r="H194">
         <v>11.12722801818161</v>
@@ -18585,16 +18585,16 @@
         <v>56.33</v>
       </c>
       <c r="D195">
-        <v>4.26614580154031</v>
+        <v>5.413133525017585</v>
       </c>
       <c r="E195">
-        <v>22.16754384229342</v>
+        <v>12.41931328739716</v>
       </c>
       <c r="F195">
-        <v>120.0000000000001</v>
+        <v>36.30665274111323</v>
       </c>
       <c r="G195">
-        <v>171.1752847382814</v>
+        <v>136.6858841616682</v>
       </c>
       <c r="H195">
         <v>5.994253757799509</v>
@@ -18608,16 +18608,16 @@
         <v>44.58</v>
       </c>
       <c r="D196">
-        <v>9.724710792614877</v>
+        <v>60.04781760099333</v>
       </c>
       <c r="E196">
-        <v>1031</v>
+        <v>1074.818424501149</v>
       </c>
       <c r="F196">
-        <v>195.9591794226544</v>
+        <v>333.5266648315081</v>
       </c>
       <c r="G196">
-        <v>16843.39457221308</v>
+        <v>7985.754747999698</v>
       </c>
       <c r="H196">
         <v>4259.023504129775</v>
@@ -18631,16 +18631,16 @@
         <v>47.02</v>
       </c>
       <c r="D197">
-        <v>929.9999999999993</v>
+        <v>3198.032892127929</v>
       </c>
       <c r="E197">
-        <v>3406.053434695355</v>
+        <v>1262.660482741137</v>
       </c>
       <c r="F197">
-        <v>1713.177749096688</v>
+        <v>1238.589268771984</v>
       </c>
       <c r="G197">
-        <v>1794.283346478262</v>
+        <v>1396.897368755457</v>
       </c>
       <c r="H197">
         <v>2208.641767607361</v>
@@ -18654,16 +18654,16 @@
         <v>37.32</v>
       </c>
       <c r="D198">
-        <v>334.3650699460094</v>
+        <v>138.4906981869898</v>
       </c>
       <c r="E198">
-        <v>292.6950631630131</v>
+        <v>40.20342325361863</v>
       </c>
       <c r="F198">
-        <v>180.0000000000001</v>
+        <v>13.98135271113</v>
       </c>
       <c r="G198">
-        <v>2452.712033320074</v>
+        <v>3138.687526559756</v>
       </c>
       <c r="H198">
         <v>55.36180209532364</v>
@@ -18677,16 +18677,16 @@
         <v>67.73999999999999</v>
       </c>
       <c r="D199">
-        <v>11149.70537727343</v>
+        <v>2696.253337484234</v>
       </c>
       <c r="E199">
-        <v>801.7749060677824</v>
+        <v>2983.317584086062</v>
       </c>
       <c r="F199">
-        <v>1707.719683925097</v>
+        <v>2323.050651708748</v>
       </c>
       <c r="G199">
-        <v>16001.2324351413</v>
+        <v>13366.51819742578</v>
       </c>
       <c r="H199">
         <v>9379.575970488235</v>
@@ -18700,16 +18700,16 @@
         <v>50.84</v>
       </c>
       <c r="D200">
-        <v>2852.630365119178</v>
+        <v>1363.359377244113</v>
       </c>
       <c r="E200">
-        <v>1031</v>
+        <v>1421.011998784667</v>
       </c>
       <c r="F200">
-        <v>195.9591794226544</v>
+        <v>188.2723008974412</v>
       </c>
       <c r="G200">
-        <v>16001.2324351413</v>
+        <v>13148.22755100129</v>
       </c>
       <c r="H200">
         <v>4259.023504129775</v>
@@ -18723,16 +18723,16 @@
         <v>23.51</v>
       </c>
       <c r="D201">
-        <v>334.3650699460094</v>
+        <v>47.41430384239481</v>
       </c>
       <c r="E201">
-        <v>11.59310139695156</v>
+        <v>16.26677229364839</v>
       </c>
       <c r="F201">
-        <v>3.271085446759232</v>
+        <v>82.02693893905806</v>
       </c>
       <c r="G201">
-        <v>250.9565277477845</v>
+        <v>177.9511785597284</v>
       </c>
       <c r="H201">
         <v>2.318502303273319</v>
@@ -18746,16 +18746,16 @@
         <v>46.03</v>
       </c>
       <c r="D202">
-        <v>36.64696440361741</v>
+        <v>80.62390582794181</v>
       </c>
       <c r="E202">
-        <v>353.462869337078</v>
+        <v>43.88973697731445</v>
       </c>
       <c r="F202">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G202">
-        <v>150.9606615166712</v>
+        <v>137.8373630911491</v>
       </c>
       <c r="H202">
         <v>57.88164529273696</v>
@@ -18769,16 +18769,16 @@
         <v>67.2</v>
       </c>
       <c r="D203">
-        <v>13.1</v>
+        <v>9.337453025043228</v>
       </c>
       <c r="E203">
-        <v>6.870225614927072</v>
+        <v>13.12991329645564</v>
       </c>
       <c r="F203">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G203">
-        <v>39.90297478929163</v>
+        <v>34.28916508785613</v>
       </c>
       <c r="H203">
         <v>12.42893002381545</v>
@@ -18792,16 +18792,16 @@
         <v>32.09</v>
       </c>
       <c r="D204">
-        <v>19.98999749874923</v>
+        <v>12.26802021078071</v>
       </c>
       <c r="E204">
-        <v>8.397618710086814</v>
+        <v>25.13872286260048</v>
       </c>
       <c r="F204">
-        <v>9.800098482952441</v>
+        <v>11.54280708452206</v>
       </c>
       <c r="G204">
-        <v>337.2620834919895</v>
+        <v>358.3179343163042</v>
       </c>
       <c r="H204">
         <v>11.28327596280225</v>
@@ -18815,16 +18815,16 @@
         <v>52.21</v>
       </c>
       <c r="D205">
-        <v>6.610597552415364</v>
+        <v>8.482352776672876</v>
       </c>
       <c r="E205">
-        <v>15.87450786638755</v>
+        <v>28.39387041336674</v>
       </c>
       <c r="F205">
-        <v>9.800098482952441</v>
+        <v>11.54280708452206</v>
       </c>
       <c r="G205">
-        <v>516.8996007862934</v>
+        <v>685.6327489979374</v>
       </c>
       <c r="H205">
         <v>10.47446554310287</v>
@@ -18838,16 +18838,16 @@
         <v>41.73</v>
       </c>
       <c r="D206">
-        <v>13.64551208273255</v>
+        <v>10.42151028735053</v>
       </c>
       <c r="E206">
-        <v>3.244996147917593</v>
+        <v>12.02825218522167</v>
       </c>
       <c r="F206">
-        <v>123.4503948960878</v>
+        <v>25.78346974460269</v>
       </c>
       <c r="G206">
-        <v>1645.228647962604</v>
+        <v>1581.577230779621</v>
       </c>
       <c r="H206">
         <v>5.25600220549474</v>
@@ -18861,16 +18861,16 @@
         <v>38.78</v>
       </c>
       <c r="D207">
-        <v>42.14261501141097</v>
+        <v>31.0667820335732</v>
       </c>
       <c r="E207">
-        <v>26.45751311064591</v>
+        <v>19.44588861629876</v>
       </c>
       <c r="F207">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G207">
-        <v>932.3325722572876</v>
+        <v>772.1272989258509</v>
       </c>
       <c r="H207">
         <v>9.869470279083831</v>
@@ -18884,16 +18884,16 @@
         <v>55.62</v>
       </c>
       <c r="D208">
-        <v>35.14256678161116</v>
+        <v>53.61804826929242</v>
       </c>
       <c r="E208">
-        <v>263.4997153698653</v>
+        <v>86.8685813798047</v>
       </c>
       <c r="F208">
-        <v>53.99999999999996</v>
+        <v>41.77776105848265</v>
       </c>
       <c r="G208">
-        <v>60.71109274202602</v>
+        <v>81.19202227737665</v>
       </c>
       <c r="H208">
         <v>79.58114415792782</v>
@@ -18907,16 +18907,16 @@
         <v>92.15000000000001</v>
       </c>
       <c r="D209">
-        <v>20.90454496036687</v>
+        <v>26.89895707137617</v>
       </c>
       <c r="E209">
-        <v>27.16615541441221</v>
+        <v>29.29262489796362</v>
       </c>
       <c r="F209">
-        <v>0.9000000000000007</v>
+        <v>1.448637334282607</v>
       </c>
       <c r="G209">
-        <v>78.59615962082869</v>
+        <v>116.9758205731634</v>
       </c>
       <c r="H209">
         <v>31.96289971147482</v>
@@ -18930,16 +18930,16 @@
         <v>35.96</v>
       </c>
       <c r="D210">
-        <v>9.465727652959391</v>
+        <v>10.62272825922842</v>
       </c>
       <c r="E210">
-        <v>14.85934049680538</v>
+        <v>17.8592542270254</v>
       </c>
       <c r="F210">
-        <v>5.7</v>
+        <v>6.460892837320095</v>
       </c>
       <c r="G210">
-        <v>239.1302370052533</v>
+        <v>210.3344058241387</v>
       </c>
       <c r="H210">
         <v>9.869470279083831</v>
@@ -18953,16 +18953,16 @@
         <v>85.53</v>
       </c>
       <c r="D211">
-        <v>49.41659640242338</v>
+        <v>58.27782434001354</v>
       </c>
       <c r="E211">
-        <v>61.0819122163017</v>
+        <v>49.82969956402496</v>
       </c>
       <c r="F211">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G211">
-        <v>397.8149617222716</v>
+        <v>514.383969416005</v>
       </c>
       <c r="H211">
         <v>11.41653494676972</v>
@@ -18976,16 +18976,16 @@
         <v>27.67</v>
       </c>
       <c r="D212">
-        <v>10.27618606293211</v>
+        <v>9.402105461179222</v>
       </c>
       <c r="E212">
-        <v>8.031189202104528</v>
+        <v>21.94331606816801</v>
       </c>
       <c r="F212">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G212">
-        <v>348.0033899085225</v>
+        <v>428.1036755814957</v>
       </c>
       <c r="H212">
         <v>9.091252714284106</v>
@@ -18999,16 +18999,16 @@
         <v>83.98</v>
       </c>
       <c r="D213">
-        <v>125.6471249173655</v>
+        <v>94.37592748310034</v>
       </c>
       <c r="E213">
-        <v>110.1122608976857</v>
+        <v>127.2638452503673</v>
       </c>
       <c r="F213">
-        <v>39.71145930332947</v>
+        <v>54.1750639799382</v>
       </c>
       <c r="G213">
-        <v>138.1990439564877</v>
+        <v>162.1531348187305</v>
       </c>
       <c r="H213">
         <v>204.8157424905439</v>
@@ -19022,16 +19022,16 @@
         <v>83.39</v>
       </c>
       <c r="D214">
-        <v>15.62689988449405</v>
+        <v>22.29997658489666</v>
       </c>
       <c r="E214">
-        <v>9.165151389911683</v>
+        <v>15.0861100938502</v>
       </c>
       <c r="F214">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G214">
-        <v>520.3581455395563</v>
+        <v>392.3828419903917</v>
       </c>
       <c r="H214">
         <v>16.00000000000001</v>
@@ -19045,16 +19045,16 @@
         <v>29.22</v>
       </c>
       <c r="D215">
-        <v>35.94440151122286</v>
+        <v>7.665301943761712</v>
       </c>
       <c r="E215">
-        <v>8.494704232638108</v>
+        <v>13.03498739913264</v>
       </c>
       <c r="F215">
-        <v>16.43167672515499</v>
+        <v>10.2698498177484</v>
       </c>
       <c r="G215">
-        <v>336.2708781913306</v>
+        <v>573.3919996647237</v>
       </c>
       <c r="H215">
         <v>6.453714584098187</v>
@@ -19068,16 +19068,16 @@
         <v>146.05</v>
       </c>
       <c r="D216">
-        <v>31.86220331364418</v>
+        <v>13.96352938622696</v>
       </c>
       <c r="E216">
-        <v>6.363961030678932</v>
+        <v>11.89687661846121</v>
       </c>
       <c r="F216">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G216">
-        <v>1468.456127421189</v>
+        <v>1328.854408654681</v>
       </c>
       <c r="H216">
         <v>35.39737603839166</v>
@@ -19091,16 +19091,16 @@
         <v>61.35</v>
       </c>
       <c r="D217">
-        <v>282.807354925574</v>
+        <v>227.4538058067414</v>
       </c>
       <c r="E217">
-        <v>1652.271164185831</v>
+        <v>727.9145387966853</v>
       </c>
       <c r="F217">
-        <v>120.0000000000001</v>
+        <v>38.78940922453608</v>
       </c>
       <c r="G217">
-        <v>12437.01254365563</v>
+        <v>7783.929497469087</v>
       </c>
       <c r="H217">
         <v>228.9352168279874</v>
@@ -19114,16 +19114,16 @@
         <v>48.84</v>
       </c>
       <c r="D218">
-        <v>37.99999999999999</v>
+        <v>8.723997136791544</v>
       </c>
       <c r="E218">
-        <v>37.41657386773942</v>
+        <v>9.06346851697025</v>
       </c>
       <c r="F218">
-        <v>16.43167672515499</v>
+        <v>7.936989640412394</v>
       </c>
       <c r="G218">
-        <v>471.4170437109788</v>
+        <v>629.7337660284683</v>
       </c>
       <c r="H218">
         <v>8.35103791465381</v>
@@ -19137,16 +19137,16 @@
         <v>25.41</v>
       </c>
       <c r="D219">
-        <v>17.54992877478426</v>
+        <v>11.22527306242668</v>
       </c>
       <c r="E219">
-        <v>37.41657386773942</v>
+        <v>26.8936943119814</v>
       </c>
       <c r="F219">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G219">
-        <v>1989.814328979927</v>
+        <v>1666.198760946055</v>
       </c>
       <c r="H219">
         <v>35.13320667063486</v>
@@ -19160,16 +19160,16 @@
         <v>34.82</v>
       </c>
       <c r="D220">
-        <v>6.100000000000001</v>
+        <v>5.543126108065911</v>
       </c>
       <c r="E220">
-        <v>42.190046219458</v>
+        <v>30.74322295190658</v>
       </c>
       <c r="F220">
-        <v>3.316624790355401</v>
+        <v>4.350947233578913</v>
       </c>
       <c r="G220">
-        <v>2100.860615535521</v>
+        <v>1682.997832980317</v>
       </c>
       <c r="H220">
         <v>4.548125460562379</v>
@@ -19183,16 +19183,16 @@
         <v>56.58</v>
       </c>
       <c r="D221">
-        <v>9.465727652959391</v>
+        <v>9.494357334261171</v>
       </c>
       <c r="E221">
-        <v>14.08545348932722</v>
+        <v>15.02874359635846</v>
       </c>
       <c r="F221">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G221">
-        <v>46.48884785007763</v>
+        <v>51.13577588609888</v>
       </c>
       <c r="H221">
         <v>9.091252714284106</v>
@@ -19206,16 +19206,16 @@
         <v>91.78</v>
       </c>
       <c r="D222">
-        <v>27.08135890238896</v>
+        <v>32.01478026193488</v>
       </c>
       <c r="E222">
-        <v>204.939015319192</v>
+        <v>32.38586391081278</v>
       </c>
       <c r="F222">
-        <v>20.47193200457639</v>
+        <v>21.64353558595175</v>
       </c>
       <c r="G222">
-        <v>2463.218244126243</v>
+        <v>1829.23579606326</v>
       </c>
       <c r="H222">
         <v>11.32371348240197</v>
@@ -19229,16 +19229,16 @@
         <v>53.02</v>
       </c>
       <c r="D223">
-        <v>2.891366458960193</v>
+        <v>41.79743098736237</v>
       </c>
       <c r="E223">
-        <v>462.7915297409845</v>
+        <v>148.8200327627163</v>
       </c>
       <c r="F223">
-        <v>32.49615361854387</v>
+        <v>28.0052511880879</v>
       </c>
       <c r="G223">
-        <v>357.7255372290106</v>
+        <v>414.2741343622986</v>
       </c>
       <c r="H223">
         <v>52.57069840302585</v>
@@ -19252,16 +19252,16 @@
         <v>45.43</v>
       </c>
       <c r="D224">
-        <v>36.64696440361741</v>
+        <v>31.60155876836063</v>
       </c>
       <c r="E224">
-        <v>462.7915297409845</v>
+        <v>23.1701118783891</v>
       </c>
       <c r="F224">
-        <v>10.09950493836208</v>
+        <v>9.104400901984407</v>
       </c>
       <c r="G224">
-        <v>1074.285773743394</v>
+        <v>1130.556771679917</v>
       </c>
       <c r="H224">
         <v>52.56002205494751</v>
@@ -19275,16 +19275,16 @@
         <v>49.1</v>
       </c>
       <c r="D225">
-        <v>9.499999999999996</v>
+        <v>8.232125664736751</v>
       </c>
       <c r="E225">
-        <v>11.59310139695156</v>
+        <v>9.500185901543878</v>
       </c>
       <c r="F225">
-        <v>75.09993342207441</v>
+        <v>11.9230170385669</v>
       </c>
       <c r="G225">
-        <v>138.6552034726415</v>
+        <v>224.7538462963497</v>
       </c>
       <c r="H225">
         <v>1.677322833569367</v>
@@ -19298,16 +19298,16 @@
         <v>63.92</v>
       </c>
       <c r="D226">
-        <v>1211.554373521882</v>
+        <v>955.9696410313999</v>
       </c>
       <c r="E226">
-        <v>727.7252228691813</v>
+        <v>787.3179004233936</v>
       </c>
       <c r="F226">
-        <v>134.3874994186586</v>
+        <v>202.6385881100865</v>
       </c>
       <c r="G226">
-        <v>4055.90126503197</v>
+        <v>4289.948578712843</v>
       </c>
       <c r="H226">
         <v>226.5202726373652</v>
@@ -19321,16 +19321,16 @@
         <v>132.81</v>
       </c>
       <c r="D227">
-        <v>8.16088230524127</v>
+        <v>5.257464087331276</v>
       </c>
       <c r="E227">
-        <v>82.15838362577479</v>
+        <v>198.1326558129297</v>
       </c>
       <c r="F227">
-        <v>2.200000000000002</v>
+        <v>5.255112124505495</v>
       </c>
       <c r="G227">
-        <v>1689.722298849316</v>
+        <v>1630.09559132904</v>
       </c>
       <c r="H227">
         <v>2.78228613080436</v>
@@ -19344,16 +19344,16 @@
         <v>77.90000000000001</v>
       </c>
       <c r="D228">
-        <v>18.04438970982395</v>
+        <v>77.83840841135945</v>
       </c>
       <c r="E228">
-        <v>1944.22220952236</v>
+        <v>397.5810536709753</v>
       </c>
       <c r="F228">
-        <v>9.633275663033816</v>
+        <v>11.86652729632243</v>
       </c>
       <c r="G228">
-        <v>1700.225085501288</v>
+        <v>1732.9852555427</v>
       </c>
       <c r="H228">
         <v>107.5394050600069</v>
@@ -19367,16 +19367,16 @@
         <v>68.28</v>
       </c>
       <c r="D229">
-        <v>15.83982323133691</v>
+        <v>57.47463522890349</v>
       </c>
       <c r="E229">
-        <v>66.45299090334464</v>
+        <v>113.9352791117219</v>
       </c>
       <c r="F229">
-        <v>195.9591794226544</v>
+        <v>42.58651075460752</v>
       </c>
       <c r="G229">
-        <v>919.3374943023359</v>
+        <v>766.0611981846428</v>
       </c>
       <c r="H229">
         <v>879.6312065631284</v>
@@ -19390,16 +19390,16 @@
         <v>71.42</v>
       </c>
       <c r="D230">
-        <v>22.22611077089287</v>
+        <v>20.16619290421641</v>
       </c>
       <c r="E230">
-        <v>38.75925695882214</v>
+        <v>118.4035408590186</v>
       </c>
       <c r="F230">
-        <v>123.4503948960878</v>
+        <v>110.6659817948219</v>
       </c>
       <c r="G230">
-        <v>804.8402814750381</v>
+        <v>703.2806200769111</v>
       </c>
       <c r="H230">
         <v>21.12390842019033</v>
@@ -19413,16 +19413,16 @@
         <v>67.92</v>
       </c>
       <c r="D231">
-        <v>4.26614580154031</v>
+        <v>3.555743284785991</v>
       </c>
       <c r="E231">
-        <v>32.40370349203931</v>
+        <v>18.27295692559187</v>
       </c>
       <c r="F231">
-        <v>180.0000000000001</v>
+        <v>12.73621402987147</v>
       </c>
       <c r="G231">
-        <v>1984.010256111466</v>
+        <v>1201.274000269397</v>
       </c>
       <c r="H231">
         <v>4.9426786982384</v>
@@ -19436,16 +19436,16 @@
         <v>41.81</v>
       </c>
       <c r="D232">
-        <v>6.292853089020914</v>
+        <v>8.381522650944575</v>
       </c>
       <c r="E232">
-        <v>15.73213272255228</v>
+        <v>15.40033648993155</v>
       </c>
       <c r="F232">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G232">
-        <v>1030.350245066902</v>
+        <v>1207.120827810651</v>
       </c>
       <c r="H232">
         <v>6.155925352657977</v>
@@ -19459,16 +19459,16 @@
         <v>66.26000000000001</v>
       </c>
       <c r="D233">
-        <v>243.4255533012097</v>
+        <v>391.0229705449191</v>
       </c>
       <c r="E233">
-        <v>292.6950631630131</v>
+        <v>56.89086355560379</v>
       </c>
       <c r="F233">
-        <v>180.0000000000001</v>
+        <v>16.67413505991917</v>
       </c>
       <c r="G233">
-        <v>199.2712215132748</v>
+        <v>136.8605812448453</v>
       </c>
       <c r="H233">
         <v>12.19824842720663</v>
@@ -19482,16 +19482,16 @@
         <v>86.90000000000001</v>
       </c>
       <c r="D234">
-        <v>4515.196562720173</v>
+        <v>1649.828113693014</v>
       </c>
       <c r="E234">
-        <v>969.329665284211</v>
+        <v>1184.612820574995</v>
       </c>
       <c r="F234">
-        <v>1636.66806260019</v>
+        <v>1891.98815655358</v>
       </c>
       <c r="G234">
-        <v>16723.90359606313</v>
+        <v>12739.7185607689</v>
       </c>
       <c r="H234">
         <v>536.5208422044765</v>
@@ -19505,16 +19505,16 @@
         <v>74.58</v>
       </c>
       <c r="D235">
-        <v>791.5806970865331</v>
+        <v>297.7291171294883</v>
       </c>
       <c r="E235">
-        <v>8923.999999999995</v>
+        <v>323.3012915235014</v>
       </c>
       <c r="F235">
-        <v>134.3874994186586</v>
+        <v>164.8735870019018</v>
       </c>
       <c r="G235">
-        <v>2983.035620729876</v>
+        <v>1728.054209526872</v>
       </c>
       <c r="H235">
         <v>10.12568049076748</v>
@@ -19528,16 +19528,16 @@
         <v>102.55</v>
       </c>
       <c r="D236">
-        <v>4354.29787681091</v>
+        <v>1867.017199721933</v>
       </c>
       <c r="E236">
-        <v>969.329665284211</v>
+        <v>890.2441867612299</v>
       </c>
       <c r="F236">
-        <v>134.3874994186586</v>
+        <v>265.7341425763375</v>
       </c>
       <c r="G236">
-        <v>3605.961212185912</v>
+        <v>3248.88640788075</v>
       </c>
       <c r="H236">
         <v>228.9352168279874</v>
@@ -19551,16 +19551,16 @@
         <v>27.97</v>
       </c>
       <c r="D237">
-        <v>2.503996805109784</v>
+        <v>6.072331693836916</v>
       </c>
       <c r="E237">
-        <v>29.69848480983502</v>
+        <v>14.43245181474474</v>
       </c>
       <c r="F237">
-        <v>16.43167672515499</v>
+        <v>10.48930930017217</v>
       </c>
       <c r="G237">
-        <v>1523.157165471198</v>
+        <v>1616.793633496089</v>
       </c>
       <c r="H237">
         <v>12.24674354645464</v>
@@ -19574,16 +19574,16 @@
         <v>56.39</v>
       </c>
       <c r="D238">
-        <v>867.4675786448724</v>
+        <v>640.8649502390244</v>
       </c>
       <c r="E238">
-        <v>961.249187255834</v>
+        <v>870.6874121046473</v>
       </c>
       <c r="F238">
-        <v>774.5966692414835</v>
+        <v>224.6753300403087</v>
       </c>
       <c r="G238">
-        <v>3802.444410825621</v>
+        <v>3492.603937780305</v>
       </c>
       <c r="H238">
         <v>438.6516855279663</v>
@@ -19597,16 +19597,16 @@
         <v>25.85</v>
       </c>
       <c r="D239">
-        <v>25.41653005427767</v>
+        <v>12.35632612856311</v>
       </c>
       <c r="E239">
-        <v>519.6152422706634</v>
+        <v>176.460884371309</v>
       </c>
       <c r="F239">
-        <v>7.476630257007489</v>
+        <v>8.37913120842971</v>
       </c>
       <c r="G239">
-        <v>14133.95810964143</v>
+        <v>11208.03524208914</v>
       </c>
       <c r="H239">
         <v>7.78544293465934</v>
@@ -19620,16 +19620,16 @@
         <v>53.51</v>
       </c>
       <c r="D240">
-        <v>45.47526800360834</v>
+        <v>20.76121015356626</v>
       </c>
       <c r="E240">
-        <v>12.29634091915153</v>
+        <v>27.35334677425616</v>
       </c>
       <c r="F240">
-        <v>9.800098482952441</v>
+        <v>11.54280708452206</v>
       </c>
       <c r="G240">
-        <v>2152.541931783955</v>
+        <v>2292.369062860113</v>
       </c>
       <c r="H240">
         <v>4.762203155904607</v>
@@ -19643,16 +19643,16 @@
         <v>26.59</v>
       </c>
       <c r="D241">
-        <v>76.83749084919408</v>
+        <v>215.275841091285</v>
       </c>
       <c r="E241">
-        <v>12.24744871391589</v>
+        <v>36.60325232467932</v>
       </c>
       <c r="F241">
-        <v>217.0512626716732</v>
+        <v>13.49170255529145</v>
       </c>
       <c r="G241">
-        <v>812.2521840272525</v>
+        <v>1064.762116100851</v>
       </c>
       <c r="H241">
         <v>21.35123551545169</v>
@@ -19666,16 +19666,16 @@
         <v>57.75</v>
       </c>
       <c r="D242">
-        <v>8.592438536294594</v>
+        <v>8.037405138294496</v>
       </c>
       <c r="E242">
-        <v>10.98180313063389</v>
+        <v>12.46546777836149</v>
       </c>
       <c r="F242">
-        <v>5.7</v>
+        <v>6.460892837320095</v>
       </c>
       <c r="G242">
-        <v>145.3646556142905</v>
+        <v>180.337816263675</v>
       </c>
       <c r="H242">
         <v>7.643289428984409</v>
@@ -19689,16 +19689,16 @@
         <v>36.58</v>
       </c>
       <c r="D243">
-        <v>9.12688336728373</v>
+        <v>23.38442254891531</v>
       </c>
       <c r="E243">
-        <v>292.6950631630131</v>
+        <v>68.21458434084177</v>
       </c>
       <c r="F243">
-        <v>120.0000000000001</v>
+        <v>14.3229907273895</v>
       </c>
       <c r="G243">
-        <v>1179.633297138369</v>
+        <v>1062.408076461082</v>
       </c>
       <c r="H243">
         <v>11.32371348240197</v>
@@ -19712,16 +19712,16 @@
         <v>25.64</v>
       </c>
       <c r="D244">
-        <v>2.891366458960193</v>
+        <v>5.814155251962658</v>
       </c>
       <c r="E244">
-        <v>20.83266665599967</v>
+        <v>16.0731204911419</v>
       </c>
       <c r="F244">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G244">
-        <v>73.39300386768917</v>
+        <v>80.11872253430234</v>
       </c>
       <c r="H244">
         <v>13.72525577297368</v>
@@ -19735,16 +19735,16 @@
         <v>60.57</v>
       </c>
       <c r="D245">
-        <v>18.24828759089467</v>
+        <v>11.03775675257176</v>
       </c>
       <c r="E245">
-        <v>12.40967364599086</v>
+        <v>38.54457552815028</v>
       </c>
       <c r="F245">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G245">
-        <v>1936.593465797522</v>
+        <v>2409.32165780302</v>
       </c>
       <c r="H245">
         <v>38.95985349351171</v>
@@ -19758,16 +19758,16 @@
         <v>101.77</v>
       </c>
       <c r="D246">
-        <v>30.38996544914127</v>
+        <v>9.515938810798385</v>
       </c>
       <c r="E246">
-        <v>7.123201527403245</v>
+        <v>10.27287401391203</v>
       </c>
       <c r="F246">
-        <v>5.7</v>
+        <v>6.460892837320095</v>
       </c>
       <c r="G246">
-        <v>77.63551573687853</v>
+        <v>112.0090543118958</v>
       </c>
       <c r="H246">
         <v>9.869470279083831</v>
@@ -19781,16 +19781,16 @@
         <v>110.92</v>
       </c>
       <c r="D247">
-        <v>17.54992877478426</v>
+        <v>20.23079170023837</v>
       </c>
       <c r="E247">
-        <v>35.35533905932737</v>
+        <v>26.9469598142117</v>
       </c>
       <c r="F247">
-        <v>3.628445763382971</v>
+        <v>9.594029676183567</v>
       </c>
       <c r="G247">
-        <v>586.8922498283786</v>
+        <v>635.9379423020277</v>
       </c>
       <c r="H247">
         <v>35.13320667063486</v>
@@ -19804,16 +19804,16 @@
         <v>46.85</v>
       </c>
       <c r="D248">
-        <v>640.0781202322099</v>
+        <v>601.3522659826859</v>
       </c>
       <c r="E248">
-        <v>899.3997998665582</v>
+        <v>49.65056104335063</v>
       </c>
       <c r="F248">
-        <v>1015.874007936023</v>
+        <v>81.34676474090854</v>
       </c>
       <c r="G248">
-        <v>1710.196339713584</v>
+        <v>1280.70646447896</v>
       </c>
       <c r="H248">
         <v>5.25600220549474</v>
@@ -19827,16 +19827,16 @@
         <v>30.61</v>
       </c>
       <c r="D249">
-        <v>538.2211441405839</v>
+        <v>66.83773114624609</v>
       </c>
       <c r="E249">
-        <v>186.5572298250595</v>
+        <v>81.41566985557172</v>
       </c>
       <c r="F249">
-        <v>51.38093031466056</v>
+        <v>10.96734327659083</v>
       </c>
       <c r="G249">
-        <v>806.1356255518824</v>
+        <v>724.1361174322988</v>
       </c>
       <c r="H249">
         <v>2.439620114646859</v>
@@ -19850,16 +19850,16 @@
         <v>39.89</v>
       </c>
       <c r="D250">
-        <v>31.01612483854165</v>
+        <v>10.69537677327572</v>
       </c>
       <c r="E250">
-        <v>32.31176256411901</v>
+        <v>28.57904151583488</v>
       </c>
       <c r="F250">
-        <v>3.628445763382971</v>
+        <v>9.594029676183567</v>
       </c>
       <c r="G250">
-        <v>1871.38010042148</v>
+        <v>1342.108531049561</v>
       </c>
       <c r="H250">
         <v>7.14732097233053</v>
@@ -19873,16 +19873,16 @@
         <v>22.06</v>
       </c>
       <c r="D251">
-        <v>3.896151947755634</v>
+        <v>11.07025024259905</v>
       </c>
       <c r="E251">
-        <v>84.85281374238575</v>
+        <v>10.52759941309589</v>
       </c>
       <c r="F251">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G251">
-        <v>897.1163485375728</v>
+        <v>889.664262917142</v>
       </c>
       <c r="H251">
         <v>14.35603871247569</v>
@@ -19896,16 +19896,16 @@
         <v>48.48</v>
       </c>
       <c r="D252">
-        <v>37.99999999999999</v>
+        <v>17.21326235347097</v>
       </c>
       <c r="E252">
-        <v>1799.999999999998</v>
+        <v>344.4236042869215</v>
       </c>
       <c r="F252">
-        <v>20.47193200457639</v>
+        <v>25.62045692850108</v>
       </c>
       <c r="G252">
-        <v>16723.90359606313</v>
+        <v>17512.10266801021</v>
       </c>
       <c r="H252">
         <v>11.81665750467502</v>
@@ -19919,16 +19919,16 @@
         <v>31.48</v>
       </c>
       <c r="D253">
-        <v>22.22611077089287</v>
+        <v>5.097528291483326</v>
       </c>
       <c r="E253">
-        <v>6.841052550594833</v>
+        <v>7.523851070011404</v>
       </c>
       <c r="F253">
-        <v>123.4503948960878</v>
+        <v>17.91708303283545</v>
       </c>
       <c r="G253">
-        <v>764.4136307689536</v>
+        <v>798.0104815104849</v>
       </c>
       <c r="H253">
         <v>5.25600220549474</v>
@@ -19942,16 +19942,16 @@
         <v>41.42</v>
       </c>
       <c r="D254">
-        <v>37.99999999999999</v>
+        <v>11.40820289544079</v>
       </c>
       <c r="E254">
-        <v>109.2757978694277</v>
+        <v>12.33891015756886</v>
       </c>
       <c r="F254">
-        <v>20.47193200457639</v>
+        <v>15.68280852916294</v>
       </c>
       <c r="G254">
-        <v>1004.475979816067</v>
+        <v>1358.020894874104</v>
       </c>
       <c r="H254">
         <v>7.78544293465934</v>
@@ -19965,16 +19965,16 @@
         <v>42.74</v>
       </c>
       <c r="D255">
-        <v>27.74887385102323</v>
+        <v>17.98679469778774</v>
       </c>
       <c r="E255">
-        <v>22.18107301281879</v>
+        <v>37.00112052201575</v>
       </c>
       <c r="F255">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G255">
-        <v>622.2345790140797</v>
+        <v>809.3757870936405</v>
       </c>
       <c r="H255">
         <v>30.16208566044636</v>
@@ -19988,16 +19988,16 @@
         <v>50.54</v>
       </c>
       <c r="D256">
-        <v>243.4255533012097</v>
+        <v>748.8662269396231</v>
       </c>
       <c r="E256">
-        <v>1219.344085974096</v>
+        <v>803.3980749372525</v>
       </c>
       <c r="F256">
-        <v>774.5966692414835</v>
+        <v>244.075536794745</v>
       </c>
       <c r="G256">
-        <v>5542.883745018273</v>
+        <v>6645.299741065781</v>
       </c>
       <c r="H256">
         <v>10.12568049076748</v>
@@ -20011,16 +20011,16 @@
         <v>59.15</v>
       </c>
       <c r="D257">
-        <v>334.3650699460094</v>
+        <v>54.47486956758922</v>
       </c>
       <c r="E257">
-        <v>201.2461179749812</v>
+        <v>454.8589203230276</v>
       </c>
       <c r="F257">
-        <v>120.0000000000001</v>
+        <v>13.28572946679264</v>
       </c>
       <c r="G257">
-        <v>1985.231010002271</v>
+        <v>2270.721921278575</v>
       </c>
       <c r="H257">
         <v>11.32371348240197</v>
@@ -20034,16 +20034,16 @@
         <v>61.54</v>
       </c>
       <c r="D258">
-        <v>27.08135890238896</v>
+        <v>39.97842897654838</v>
       </c>
       <c r="E258">
-        <v>4329.018364479416</v>
+        <v>128.3263790506105</v>
       </c>
       <c r="F258">
-        <v>20.47193200457639</v>
+        <v>25.62045692850108</v>
       </c>
       <c r="G258">
-        <v>614.5972912435301</v>
+        <v>662.578904671865</v>
       </c>
       <c r="H258">
         <v>25.10542149414451</v>
@@ -20057,16 +20057,16 @@
         <v>20.27</v>
       </c>
       <c r="D259">
-        <v>234.0085468524601</v>
+        <v>28.2234523357317</v>
       </c>
       <c r="E259">
-        <v>14.00000000000001</v>
+        <v>15.37839778171618</v>
       </c>
       <c r="F259">
-        <v>3.628445763382971</v>
+        <v>9.03923851481709</v>
       </c>
       <c r="G259">
-        <v>1409.966868907089</v>
+        <v>1567.528523522931</v>
       </c>
       <c r="H259">
         <v>10.1631568403439</v>
@@ -20080,16 +20080,16 @@
         <v>52.88</v>
       </c>
       <c r="D260">
-        <v>0.9000000000000007</v>
+        <v>5.571480802070164</v>
       </c>
       <c r="E260">
-        <v>27.49545416973506</v>
+        <v>55.05969219616198</v>
       </c>
       <c r="F260">
-        <v>1015.874007936023</v>
+        <v>382.5442535353992</v>
       </c>
       <c r="G260">
-        <v>589.8206908765512</v>
+        <v>434.9966426417556</v>
       </c>
       <c r="H260">
         <v>21.12390842019033</v>
@@ -20103,16 +20103,16 @@
         <v>36.59</v>
       </c>
       <c r="D261">
-        <v>270.3701166919151</v>
+        <v>540.3904543068978</v>
       </c>
       <c r="E261">
-        <v>3406.053434695355</v>
+        <v>180.5502194033391</v>
       </c>
       <c r="F261">
-        <v>1015.874007936023</v>
+        <v>102.8124120209414</v>
       </c>
       <c r="G261">
-        <v>1239.821423381268</v>
+        <v>1491.681104721104</v>
       </c>
       <c r="H261">
         <v>11.32371348240197</v>
@@ -20126,16 +20126,16 @@
         <v>51.45</v>
       </c>
       <c r="D262">
-        <v>160.9347693943108</v>
+        <v>33.60958402668974</v>
       </c>
       <c r="E262">
-        <v>9.279008567729619</v>
+        <v>36.9320205938826</v>
       </c>
       <c r="F262">
-        <v>0.9000000000000007</v>
+        <v>2.379050244679073</v>
       </c>
       <c r="G262">
-        <v>1152.728070226142</v>
+        <v>1258.66655088082</v>
       </c>
       <c r="H262">
         <v>32.49112183528948</v>
@@ -20149,16 +20149,16 @@
         <v>28.06</v>
       </c>
       <c r="D263">
-        <v>160.9347693943108</v>
+        <v>22.36406009286733</v>
       </c>
       <c r="E263">
-        <v>110.1122608976857</v>
+        <v>50.31413361291766</v>
       </c>
       <c r="F263">
-        <v>45.52905695931094</v>
+        <v>15.77203021505359</v>
       </c>
       <c r="G263">
-        <v>1215.237158202415</v>
+        <v>925.2373409864707</v>
       </c>
       <c r="H263">
         <v>74.91367846379282</v>
@@ -20172,16 +20172,16 @@
         <v>62.19</v>
       </c>
       <c r="D264">
-        <v>6.465291950097847</v>
+        <v>7.356156552015657</v>
       </c>
       <c r="E264">
-        <v>24.49489742783179</v>
+        <v>14.51665389703152</v>
       </c>
       <c r="F264">
-        <v>4.700000000000006</v>
+        <v>5.042374411701775</v>
       </c>
       <c r="G264">
-        <v>455.0914103349828</v>
+        <v>637.0748285549697</v>
       </c>
       <c r="H264">
         <v>3.997540154266503</v>
@@ -20195,16 +20195,16 @@
         <v>58.98</v>
       </c>
       <c r="D265">
-        <v>8.384509526501832</v>
+        <v>7.353253555948454</v>
       </c>
       <c r="E265">
-        <v>3.244996147917593</v>
+        <v>8.791170667483293</v>
       </c>
       <c r="F265">
-        <v>4.341544219427951</v>
+        <v>5.839705938400807</v>
       </c>
       <c r="G265">
-        <v>968.8985545224588</v>
+        <v>920.2135402558851</v>
       </c>
       <c r="H265">
         <v>6.453714584098187</v>
@@ -20218,16 +20218,16 @@
         <v>61.49</v>
       </c>
       <c r="D266">
-        <v>4.898979485566358</v>
+        <v>8.191124532674158</v>
       </c>
       <c r="E266">
-        <v>9.165151389911683</v>
+        <v>14.10013060173502</v>
       </c>
       <c r="F266">
-        <v>15.32162935939658</v>
+        <v>20.81893271953096</v>
       </c>
       <c r="G266">
-        <v>1704.23997602281</v>
+        <v>1888.663229393296</v>
       </c>
       <c r="H266">
         <v>11.28327596280225</v>
@@ -20241,16 +20241,16 @@
         <v>74.84999999999999</v>
       </c>
       <c r="D267">
-        <v>884.9999999999993</v>
+        <v>953.7977879936586</v>
       </c>
       <c r="E267">
-        <v>707.9999999999998</v>
+        <v>318.5933633281761</v>
       </c>
       <c r="F267">
-        <v>9.633275663033816</v>
+        <v>14.53664497598555</v>
       </c>
       <c r="G267">
-        <v>8018.598393696678</v>
+        <v>8350.232415197515</v>
       </c>
       <c r="H267">
         <v>25.61005870999094</v>
@@ -20264,16 +20264,16 @@
         <v>67.66</v>
       </c>
       <c r="D268">
-        <v>0.9000000000000007</v>
+        <v>20.42484901750353</v>
       </c>
       <c r="E268">
-        <v>292.6950631630131</v>
+        <v>84.47058521604535</v>
       </c>
       <c r="F268">
-        <v>123.4503948960878</v>
+        <v>55.75414757197298</v>
       </c>
       <c r="G268">
-        <v>465.1028694287929</v>
+        <v>647.2332337458782</v>
       </c>
       <c r="H268">
         <v>10.12568049076748</v>
@@ -20287,16 +20287,16 @@
         <v>50.57</v>
       </c>
       <c r="D269">
-        <v>19.98999749874923</v>
+        <v>8.483988756992987</v>
       </c>
       <c r="E269">
-        <v>12.79843740462093</v>
+        <v>19.21288085988715</v>
       </c>
       <c r="F269">
-        <v>4.341544219427951</v>
+        <v>5.839705938400807</v>
       </c>
       <c r="G269">
-        <v>491.615734273915</v>
+        <v>462.0737036280836</v>
       </c>
       <c r="H269">
         <v>6.453714584098187</v>
@@ -20310,16 +20310,16 @@
         <v>32.69</v>
       </c>
       <c r="D270">
-        <v>9.465727652959391</v>
+        <v>10.62272825922842</v>
       </c>
       <c r="E270">
-        <v>14.08545348932722</v>
+        <v>18.97308444194082</v>
       </c>
       <c r="F270">
-        <v>5.7</v>
+        <v>6.460892837320095</v>
       </c>
       <c r="G270">
-        <v>170.106647238061</v>
+        <v>212.1392310662454</v>
       </c>
       <c r="H270">
         <v>14.59024180613997</v>
@@ -20333,16 +20333,16 @@
         <v>29.68</v>
       </c>
       <c r="D271">
-        <v>11.85748708622531</v>
+        <v>11.81590487182606</v>
       </c>
       <c r="E271">
-        <v>37.41657386773942</v>
+        <v>16.03030232626667</v>
       </c>
       <c r="F271">
-        <v>26.99999999999998</v>
+        <v>8.869165171122098</v>
       </c>
       <c r="G271">
-        <v>2543.953647228196</v>
+        <v>1783.604598235798</v>
       </c>
       <c r="H271">
         <v>13.90410657954582</v>
@@ -20356,16 +20356,16 @@
         <v>28.97</v>
       </c>
       <c r="D272">
-        <v>410.9440351191392</v>
+        <v>456.9969901640584</v>
       </c>
       <c r="E272">
-        <v>1981.554944986389</v>
+        <v>941.3683945293047</v>
       </c>
       <c r="F272">
-        <v>9.633275663033816</v>
+        <v>25.76156156057159</v>
       </c>
       <c r="G272">
-        <v>1244.405759890183</v>
+        <v>1982.885822854815</v>
       </c>
       <c r="H272">
         <v>263.6372428176644</v>
@@ -20379,16 +20379,16 @@
         <v>47.99</v>
       </c>
       <c r="D273">
-        <v>1211.554373521882</v>
+        <v>742.654361544325</v>
       </c>
       <c r="E273">
-        <v>990.7774724931942</v>
+        <v>486.6700671315905</v>
       </c>
       <c r="F273">
-        <v>220.2271554554525</v>
+        <v>353.8823094966397</v>
       </c>
       <c r="G273">
-        <v>460.5028356224055</v>
+        <v>729.4261991345633</v>
       </c>
       <c r="H273">
         <v>919.4052812006535</v>
@@ -20402,16 +20402,16 @@
         <v>47.25</v>
       </c>
       <c r="D274">
-        <v>3.249615361854387</v>
+        <v>21.72814171574128</v>
       </c>
       <c r="E274">
-        <v>462.7915297409845</v>
+        <v>105.4455484743443</v>
       </c>
       <c r="F274">
-        <v>20.47193200457639</v>
+        <v>25.62045692850108</v>
       </c>
       <c r="G274">
-        <v>392.2845933079601</v>
+        <v>308.5827330058355</v>
       </c>
       <c r="H274">
         <v>25.10542149414451</v>
@@ -20425,16 +20425,16 @@
         <v>28.95</v>
       </c>
       <c r="D275">
-        <v>10.1823376490863</v>
+        <v>13.84778178456957</v>
       </c>
       <c r="E275">
-        <v>11.61895003862226</v>
+        <v>19.27233149590079</v>
       </c>
       <c r="F275">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G275">
-        <v>32.18592186484764</v>
+        <v>24.12856104640036</v>
       </c>
       <c r="H275">
         <v>11.17835957425783</v>
@@ -20448,16 +20448,16 @@
         <v>19.52</v>
       </c>
       <c r="D276">
-        <v>9.499473669630346</v>
+        <v>9.269888562139647</v>
       </c>
       <c r="E276">
-        <v>8.031189202104528</v>
+        <v>7.967537559803417</v>
       </c>
       <c r="F276">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G276">
-        <v>55.19703812208448</v>
+        <v>35.9811951046423</v>
       </c>
       <c r="H276">
         <v>5.600000000000004</v>
@@ -20471,16 +20471,16 @@
         <v>66.56</v>
       </c>
       <c r="D277">
-        <v>13.04990421420788</v>
+        <v>10.84463384636506</v>
       </c>
       <c r="E277">
-        <v>32.31176256411901</v>
+        <v>12.87555314185922</v>
       </c>
       <c r="F277">
-        <v>1.100000000000001</v>
+        <v>1.861152988746354</v>
       </c>
       <c r="G277">
-        <v>23.06292242954546</v>
+        <v>17.63190207719986</v>
       </c>
       <c r="H277">
         <v>8.357981778175306</v>
@@ -20494,16 +20494,16 @@
         <v>55.63</v>
       </c>
       <c r="D278">
-        <v>8.053570636680362</v>
+        <v>9.392044416873883</v>
       </c>
       <c r="E278">
-        <v>12.47437373177508</v>
+        <v>8.531544715909373</v>
       </c>
       <c r="F278">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G278">
-        <v>50.10393086838094</v>
+        <v>42.66144184415795</v>
       </c>
       <c r="H278">
         <v>9.099150586900123</v>
@@ -20517,16 +20517,16 @@
         <v>56.13</v>
       </c>
       <c r="D279">
-        <v>11.8945365609594</v>
+        <v>10.57501027674715</v>
       </c>
       <c r="E279">
-        <v>9.380831519646863</v>
+        <v>11.45520430622467</v>
       </c>
       <c r="F279">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G279">
-        <v>14.70598242302414</v>
+        <v>18.09286553303462</v>
       </c>
       <c r="H279">
         <v>12.2</v>
@@ -20540,16 +20540,16 @@
         <v>52.48</v>
       </c>
       <c r="D280">
-        <v>9.934787365615843</v>
+        <v>13.4677819149833</v>
       </c>
       <c r="E280">
-        <v>10.69579356569676</v>
+        <v>9.62771976037728</v>
       </c>
       <c r="F280">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G280">
-        <v>49.10873006795338</v>
+        <v>53.02297800601222</v>
       </c>
       <c r="H280">
         <v>12.00000000000001</v>
@@ -20563,16 +20563,16 @@
         <v>102.6</v>
       </c>
       <c r="D281">
-        <v>6.645299090334465</v>
+        <v>13.81901695257634</v>
       </c>
       <c r="E281">
-        <v>39.84469851812155</v>
+        <v>14.74866862878177</v>
       </c>
       <c r="F281">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G281">
-        <v>216.2378472131068</v>
+        <v>167.1278326673003</v>
       </c>
       <c r="H281">
         <v>5.400000000000007</v>
@@ -20586,16 +20586,16 @@
         <v>30.62</v>
       </c>
       <c r="D282">
-        <v>5.366563145999499</v>
+        <v>7.347613250093981</v>
       </c>
       <c r="E282">
-        <v>11.77285012220916</v>
+        <v>22.65757230123775</v>
       </c>
       <c r="F282">
-        <v>10</v>
+        <v>8.763690235646591</v>
       </c>
       <c r="G282">
-        <v>1152.406012904533</v>
+        <v>1112.18202505384</v>
       </c>
       <c r="H282">
         <v>9.434639060879125</v>
@@ -20609,16 +20609,16 @@
         <v>28.2</v>
       </c>
       <c r="D283">
-        <v>32.18695387886217</v>
+        <v>57.79986676571621</v>
       </c>
       <c r="E283">
-        <v>42.190046219458</v>
+        <v>11.51254345109531</v>
       </c>
       <c r="F283">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G283">
-        <v>1323.367458748806</v>
+        <v>1061.37663574446</v>
       </c>
       <c r="H283">
         <v>8.921288934106611</v>
@@ -20632,16 +20632,16 @@
         <v>21.44</v>
       </c>
       <c r="D284">
-        <v>740.0000000000001</v>
+        <v>93.41781620834833</v>
       </c>
       <c r="E284">
-        <v>1799.999999999998</v>
+        <v>124.7949299839515</v>
       </c>
       <c r="F284">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G284">
-        <v>25091.81118135262</v>
+        <v>21333.69125820983</v>
       </c>
       <c r="H284">
         <v>111.5362885926709</v>
@@ -20655,16 +20655,16 @@
         <v>58.33</v>
       </c>
       <c r="D285">
-        <v>32.18695387886217</v>
+        <v>12.57056378016643</v>
       </c>
       <c r="E285">
-        <v>28.98275349237889</v>
+        <v>10.54149872485764</v>
       </c>
       <c r="F285">
-        <v>1.100000000000001</v>
+        <v>2.379660840977891</v>
       </c>
       <c r="G285">
-        <v>740.3245444080505</v>
+        <v>728.7953648114516</v>
       </c>
       <c r="H285">
         <v>8.476131423390742</v>
@@ -20678,16 +20678,16 @@
         <v>40.86</v>
       </c>
       <c r="D286">
-        <v>4.774934554525331</v>
+        <v>7.084456400920558</v>
       </c>
       <c r="E286">
-        <v>37.41657386773942</v>
+        <v>14.46883530107525</v>
       </c>
       <c r="F286">
-        <v>9.800098482952441</v>
+        <v>11.54280708452206</v>
       </c>
       <c r="G286">
-        <v>1643.61169554566</v>
+        <v>1154.722964390056</v>
       </c>
       <c r="H286">
         <v>9.091252714284106</v>
@@ -20701,16 +20701,16 @@
         <v>50.18</v>
       </c>
       <c r="D287">
-        <v>13.04990421420788</v>
+        <v>10.64672603243014</v>
       </c>
       <c r="E287">
-        <v>37.589892258425</v>
+        <v>15.17049092008216</v>
       </c>
       <c r="F287">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G287">
-        <v>72.84353890641185</v>
+        <v>56.89574008202473</v>
       </c>
       <c r="H287">
         <v>7.928370991412026</v>
@@ -20724,16 +20724,16 @@
         <v>60.39</v>
       </c>
       <c r="D288">
-        <v>60.86871117413282</v>
+        <v>33.34848212483719</v>
       </c>
       <c r="E288">
-        <v>27.16615541441221</v>
+        <v>28.90434326743385</v>
       </c>
       <c r="F288">
-        <v>0.9000000000000007</v>
+        <v>1.448637334282607</v>
       </c>
       <c r="G288">
-        <v>98.20344328196327</v>
+        <v>154.2415079835374</v>
       </c>
       <c r="H288">
         <v>31.96289971147482</v>
@@ -20747,16 +20747,16 @@
         <v>55.77</v>
       </c>
       <c r="D289">
-        <v>31.88259713385971</v>
+        <v>35.56983010282799</v>
       </c>
       <c r="E289">
-        <v>28.52998422712494</v>
+        <v>43.47636069873521</v>
       </c>
       <c r="F289">
-        <v>9.194019795497493</v>
+        <v>16.77047153415298</v>
       </c>
       <c r="G289">
-        <v>25.7270052950014</v>
+        <v>33.4156687766173</v>
       </c>
       <c r="H289">
         <v>49.22873841545184</v>
@@ -20770,16 +20770,16 @@
         <v>28.39</v>
       </c>
       <c r="D290">
-        <v>11.85748708622531</v>
+        <v>21.97000138581685</v>
       </c>
       <c r="E290">
-        <v>34.64101615137756</v>
+        <v>16.49625556494082</v>
       </c>
       <c r="F290">
-        <v>8.471325843386287</v>
+        <v>7.854687828867076</v>
       </c>
       <c r="G290">
-        <v>1540.382961243321</v>
+        <v>1582.165034088352</v>
       </c>
       <c r="H290">
         <v>9.075496612144194</v>
@@ -20793,16 +20793,16 @@
         <v>37.2</v>
       </c>
       <c r="D291">
-        <v>334.3650699460094</v>
+        <v>38.50706684624319</v>
       </c>
       <c r="E291">
-        <v>18.70828693386971</v>
+        <v>11.55319753784268</v>
       </c>
       <c r="F291">
-        <v>10</v>
+        <v>9.393286842850172</v>
       </c>
       <c r="G291">
-        <v>1006.445255262989</v>
+        <v>1150.786368666659</v>
       </c>
       <c r="H291">
         <v>18.51593465183863</v>
@@ -20816,16 +20816,16 @@
         <v>112.84</v>
       </c>
       <c r="D292">
-        <v>14.45683229480096</v>
+        <v>34.98564668524286</v>
       </c>
       <c r="E292">
-        <v>89.0000000000001</v>
+        <v>62.6353954459911</v>
       </c>
       <c r="F292">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G292">
-        <v>1443.628685190468</v>
+        <v>1455.061910767131</v>
       </c>
       <c r="H292">
         <v>24.90953973911022</v>
@@ -20839,16 +20839,16 @@
         <v>71.79000000000001</v>
       </c>
       <c r="D293">
-        <v>3.600000000000004</v>
+        <v>4.299130572444952</v>
       </c>
       <c r="E293">
-        <v>27.98571063953892</v>
+        <v>28.91890251510957</v>
       </c>
       <c r="F293">
-        <v>1</v>
+        <v>3.597841408157394</v>
       </c>
       <c r="G293">
-        <v>207.7900157551595</v>
+        <v>140.5936101212327</v>
       </c>
       <c r="H293">
         <v>23.8289293485713</v>
@@ -20862,16 +20862,16 @@
         <v>89.38</v>
       </c>
       <c r="D294">
-        <v>5.366563145999499</v>
+        <v>17.93525972100371</v>
       </c>
       <c r="E294">
-        <v>35.35533905932737</v>
+        <v>30.93756631265721</v>
       </c>
       <c r="F294">
-        <v>6.209310595583889</v>
+        <v>7.2975758347557</v>
       </c>
       <c r="G294">
-        <v>929.8596613791659</v>
+        <v>1174.234118719068</v>
       </c>
       <c r="H294">
         <v>102.2834611704432</v>
@@ -20885,16 +20885,16 @@
         <v>25.36</v>
       </c>
       <c r="D295">
-        <v>252.4282076155513</v>
+        <v>293.0798393186561</v>
       </c>
       <c r="E295">
-        <v>212.1320343559639</v>
+        <v>225.0258268714155</v>
       </c>
       <c r="F295">
-        <v>217.0512626716732</v>
+        <v>13.19311415305936</v>
       </c>
       <c r="G295">
-        <v>520.9883707757336</v>
+        <v>350.7794504758682</v>
       </c>
       <c r="H295">
         <v>15.63119988627157</v>
@@ -20908,16 +20908,16 @@
         <v>20.12</v>
       </c>
       <c r="D296">
-        <v>5.366563145999499</v>
+        <v>16.15507574757659</v>
       </c>
       <c r="E296">
-        <v>10.2469507659596</v>
+        <v>13.00713017278371</v>
       </c>
       <c r="F296">
-        <v>1.100000000000001</v>
+        <v>1.861152988746354</v>
       </c>
       <c r="G296">
-        <v>77.41381478100926</v>
+        <v>52.77825234464817</v>
       </c>
       <c r="H296">
         <v>8.476131423390708</v>
@@ -20931,16 +20931,16 @@
         <v>101.61</v>
       </c>
       <c r="D297">
-        <v>1.9</v>
+        <v>9.120754211959445</v>
       </c>
       <c r="E297">
-        <v>34.64101615137756</v>
+        <v>31.59296959119817</v>
       </c>
       <c r="F297">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G297">
-        <v>1232.795212458485</v>
+        <v>1359.97896481818</v>
       </c>
       <c r="H297">
         <v>27.6626177523507</v>
@@ -20954,16 +20954,16 @@
         <v>55.26</v>
       </c>
       <c r="D298">
-        <v>334.3650699460094</v>
+        <v>49.16032415755461</v>
       </c>
       <c r="E298">
-        <v>30.98386676965935</v>
+        <v>10.47849712516675</v>
       </c>
       <c r="F298">
-        <v>3.628445763382971</v>
+        <v>7.682156999791036</v>
       </c>
       <c r="G298">
-        <v>2320.260794747168</v>
+        <v>2677.526459519049</v>
       </c>
       <c r="H298">
         <v>4.408694927674247</v>
@@ -20977,16 +20977,16 @@
         <v>46.5</v>
       </c>
       <c r="D299">
-        <v>18.8467503830236</v>
+        <v>85.22350994963884</v>
       </c>
       <c r="E299">
-        <v>990.7774724931942</v>
+        <v>156.1909655144197</v>
       </c>
       <c r="F299">
-        <v>20.47193200457639</v>
+        <v>25.62045692850108</v>
       </c>
       <c r="G299">
-        <v>693.5579098662694</v>
+        <v>688.1814343337978</v>
       </c>
       <c r="H299">
         <v>52.57069840302585</v>
@@ -21000,16 +21000,16 @@
         <v>81.84999999999999</v>
       </c>
       <c r="D300">
-        <v>2852.630365119178</v>
+        <v>900.0289370762547</v>
       </c>
       <c r="E300">
-        <v>1157.713263291044</v>
+        <v>835.0306717807541</v>
       </c>
       <c r="F300">
-        <v>774.5966692414835</v>
+        <v>345.8936727573293</v>
       </c>
       <c r="G300">
-        <v>10578.39901772374</v>
+        <v>9490.392248113545</v>
       </c>
       <c r="H300">
         <v>4259.023504129775</v>
@@ -21023,16 +21023,16 @@
         <v>42.16</v>
       </c>
       <c r="D301">
-        <v>76.83749084919408</v>
+        <v>142.7055323407302</v>
       </c>
       <c r="E301">
-        <v>212.1320343559639</v>
+        <v>151.5660968846836</v>
       </c>
       <c r="F301">
-        <v>53.99999999999996</v>
+        <v>29.59190909821945</v>
       </c>
       <c r="G301">
-        <v>4524.861762540443</v>
+        <v>3630.017660770094</v>
       </c>
       <c r="H301">
         <v>47.9843699109757</v>
@@ -21046,16 +21046,16 @@
         <v>38.06</v>
       </c>
       <c r="D302">
-        <v>23.94577206940718</v>
+        <v>25.76677990261221</v>
       </c>
       <c r="E302">
-        <v>26.45751311064591</v>
+        <v>42.29415893047943</v>
       </c>
       <c r="F302">
-        <v>15.32162935939658</v>
+        <v>20.81893271953096</v>
       </c>
       <c r="G302">
-        <v>401.1124781622828</v>
+        <v>417.5519852224121</v>
       </c>
       <c r="H302">
         <v>102.2834611704432</v>
@@ -21069,16 +21069,16 @@
         <v>21.85</v>
       </c>
       <c r="D303">
-        <v>1.50996688705415</v>
+        <v>5.294403868026391</v>
       </c>
       <c r="E303">
-        <v>19.33907960581373</v>
+        <v>10.36952727914604</v>
       </c>
       <c r="F303">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G303">
-        <v>648.1983236029899</v>
+        <v>484.0158835131228</v>
       </c>
       <c r="H303">
         <v>15.30344946217913</v>
@@ -21092,16 +21092,16 @@
         <v>23.02</v>
       </c>
       <c r="D304">
-        <v>2.569046515733028</v>
+        <v>4.000099587949419</v>
       </c>
       <c r="E304">
-        <v>6.200000000000006</v>
+        <v>9.284787735023997</v>
       </c>
       <c r="F304">
-        <v>0.9000000000000007</v>
+        <v>1.448637334282607</v>
       </c>
       <c r="G304">
-        <v>101.0324841263223</v>
+        <v>97.67045267248551</v>
       </c>
       <c r="H304">
         <v>10.85676558509648</v>
@@ -21115,16 +21115,16 @@
         <v>75.53</v>
       </c>
       <c r="D305">
-        <v>27.59347749016059</v>
+        <v>8.730848434792687</v>
       </c>
       <c r="E305">
-        <v>31.00322563863313</v>
+        <v>37.23904164708932</v>
       </c>
       <c r="F305">
-        <v>51.38093031466056</v>
+        <v>8.650371503846168</v>
       </c>
       <c r="G305">
-        <v>153.438307174806</v>
+        <v>179.7409570056911</v>
       </c>
       <c r="H305">
         <v>9.546175931188218</v>
@@ -21138,16 +21138,16 @@
         <v>23.63</v>
       </c>
       <c r="D306">
-        <v>76.83749084919408</v>
+        <v>112.671270542255</v>
       </c>
       <c r="E306">
-        <v>5.479963503528107</v>
+        <v>4.691930485552434</v>
       </c>
       <c r="F306">
-        <v>17.46049604742133</v>
+        <v>14.44819764450019</v>
       </c>
       <c r="G306">
-        <v>26.4004312003737</v>
+        <v>51.07781960210094</v>
       </c>
       <c r="H306">
         <v>117.9928016185246</v>
@@ -21161,16 +21161,16 @@
         <v>26.12</v>
       </c>
       <c r="D307">
-        <v>334.3650699460094</v>
+        <v>77.36639505691582</v>
       </c>
       <c r="E307">
-        <v>27.98571063953892</v>
+        <v>9.024997284986135</v>
       </c>
       <c r="F307">
-        <v>10</v>
+        <v>8.807212527894764</v>
       </c>
       <c r="G307">
-        <v>1765.447355882097</v>
+        <v>1708.002397710585</v>
       </c>
       <c r="H307">
         <v>12.80416531106526</v>
@@ -21184,16 +21184,16 @@
         <v>23.55</v>
       </c>
       <c r="D308">
-        <v>334.3650699460094</v>
+        <v>78.76735300062531</v>
       </c>
       <c r="E308">
-        <v>9.581231653602815</v>
+        <v>17.5261650863994</v>
       </c>
       <c r="F308">
-        <v>1</v>
+        <v>64.10624597199315</v>
       </c>
       <c r="G308">
-        <v>2731.574546145336</v>
+        <v>2941.959546732785</v>
       </c>
       <c r="H308">
         <v>2.318502303273319</v>
@@ -21207,16 +21207,16 @@
         <v>40.49</v>
       </c>
       <c r="D309">
-        <v>42.14261501141097</v>
+        <v>15.07223560083073</v>
       </c>
       <c r="E309">
-        <v>8.397618710086814</v>
+        <v>14.60078313855215</v>
       </c>
       <c r="F309">
-        <v>9.800098482952441</v>
+        <v>11.54280708452206</v>
       </c>
       <c r="G309">
-        <v>1704.495028041446</v>
+        <v>1436.190429443358</v>
       </c>
       <c r="H309">
         <v>8.357628655200799</v>
@@ -21230,16 +21230,16 @@
         <v>24.51</v>
       </c>
       <c r="D310">
-        <v>19.98999749874923</v>
+        <v>7.59200869524583</v>
       </c>
       <c r="E310">
-        <v>20.83266665599967</v>
+        <v>16.845348391866</v>
       </c>
       <c r="F310">
-        <v>12.40075126279721</v>
+        <v>14.1746478563006</v>
       </c>
       <c r="G310">
-        <v>177.8209764921681</v>
+        <v>164.4028040735365</v>
       </c>
       <c r="H310">
         <v>12.47022245347934</v>
@@ -21253,16 +21253,16 @@
         <v>25.56</v>
       </c>
       <c r="D311">
-        <v>7.409453421137085</v>
+        <v>7.715502033623117</v>
       </c>
       <c r="E311">
-        <v>15.49193338482967</v>
+        <v>28.12691562150358</v>
       </c>
       <c r="F311">
-        <v>5.7</v>
+        <v>6.460892837320095</v>
       </c>
       <c r="G311">
-        <v>968.7657118423261</v>
+        <v>969.1213675743265</v>
       </c>
       <c r="H311">
         <v>9.869470279083831</v>
@@ -21276,16 +21276,16 @@
         <v>42.05</v>
       </c>
       <c r="D312">
-        <v>6.398437309218548</v>
+        <v>14.33767761025203</v>
       </c>
       <c r="E312">
-        <v>6.200000000000006</v>
+        <v>9.69496489041215</v>
       </c>
       <c r="F312">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G312">
-        <v>74.37662772522907</v>
+        <v>67.0302207907479</v>
       </c>
       <c r="H312">
         <v>7.98362274607246</v>
@@ -21299,16 +21299,16 @@
         <v>91.88</v>
       </c>
       <c r="D313">
-        <v>7.547184905645275</v>
+        <v>9.161065907417141</v>
       </c>
       <c r="E313">
-        <v>11.14450537260404</v>
+        <v>10.05822435868431</v>
       </c>
       <c r="F313">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G313">
-        <v>24.23388963722161</v>
+        <v>34.06523506836161</v>
       </c>
       <c r="H313">
         <v>8.224475750561693</v>
@@ -21322,16 +21322,16 @@
         <v>101.07</v>
       </c>
       <c r="D314">
-        <v>82</v>
+        <v>169.8252647073204</v>
       </c>
       <c r="E314">
-        <v>164.3167672515499</v>
+        <v>122.4255377781617</v>
       </c>
       <c r="F314">
-        <v>46.33573135281239</v>
+        <v>31.84226496665091</v>
       </c>
       <c r="G314">
-        <v>15459.19679053581</v>
+        <v>9851.482703654199</v>
       </c>
       <c r="H314">
         <v>14.57823742133674</v>
@@ -21345,16 +21345,16 @@
         <v>89.51000000000001</v>
       </c>
       <c r="D315">
-        <v>9.499473669630346</v>
+        <v>17.34623997735875</v>
       </c>
       <c r="E315">
-        <v>28.52998422712494</v>
+        <v>49.05209859358888</v>
       </c>
       <c r="F315">
-        <v>9.194019795497493</v>
+        <v>16.77047153415298</v>
       </c>
       <c r="G315">
-        <v>10.80808559389468</v>
+        <v>11.41671925434401</v>
       </c>
       <c r="H315">
         <v>11.4</v>
@@ -21368,16 +21368,16 @@
         <v>27.18</v>
       </c>
       <c r="D316">
-        <v>4.898979485566358</v>
+        <v>5.202957454833322</v>
       </c>
       <c r="E316">
-        <v>31.00000000000002</v>
+        <v>8.631871585015805</v>
       </c>
       <c r="F316">
-        <v>3.316624790355401</v>
+        <v>4.813982860671788</v>
       </c>
       <c r="G316">
-        <v>156.062871086287</v>
+        <v>116.3513614413082</v>
       </c>
       <c r="H316">
         <v>8.102839019043904</v>
@@ -21391,16 +21391,16 @@
         <v>63.84</v>
       </c>
       <c r="D317">
-        <v>847.2543891889848</v>
+        <v>1274.391584543725</v>
       </c>
       <c r="E317">
-        <v>727.7252228691813</v>
+        <v>930.5089589049206</v>
       </c>
       <c r="F317">
-        <v>5745.132929644721</v>
+        <v>2028.538846896029</v>
       </c>
       <c r="G317">
-        <v>15459.19679053581</v>
+        <v>9851.482703654199</v>
       </c>
       <c r="H317">
         <v>2005.988209446386</v>
@@ -21414,16 +21414,16 @@
         <v>59.2</v>
       </c>
       <c r="D318">
-        <v>3.286335345030999</v>
+        <v>8.00430389771344</v>
       </c>
       <c r="E318">
-        <v>36.53765181289025</v>
+        <v>35.19346926063055</v>
       </c>
       <c r="F318">
-        <v>3.271085446759232</v>
+        <v>11.41207696047181</v>
       </c>
       <c r="G318">
-        <v>1311.046790347951</v>
+        <v>1346.058435690677</v>
       </c>
       <c r="H318">
         <v>88.31703825046745</v>
@@ -21437,16 +21437,16 @@
         <v>63.77</v>
       </c>
       <c r="D319">
-        <v>1.989974874213242</v>
+        <v>5.438805744044658</v>
       </c>
       <c r="E319">
-        <v>11.59310139695156</v>
+        <v>38.83252579516127</v>
       </c>
       <c r="F319">
-        <v>123.4503948960878</v>
+        <v>19.15675267797593</v>
       </c>
       <c r="G319">
-        <v>357.7255372290106</v>
+        <v>323.0696415861147</v>
       </c>
       <c r="H319">
         <v>7.78544293465934</v>
@@ -21460,16 +21460,16 @@
         <v>79.12</v>
       </c>
       <c r="D320">
-        <v>1.72336879396141</v>
+        <v>4.070698323857874</v>
       </c>
       <c r="E320">
-        <v>9.165151389911683</v>
+        <v>9.809864118557813</v>
       </c>
       <c r="F320">
-        <v>3.628445763382971</v>
+        <v>8.433192653989879</v>
       </c>
       <c r="G320">
-        <v>182.8424148668212</v>
+        <v>130.5912079907793</v>
       </c>
       <c r="H320">
         <v>4.408694927674247</v>
@@ -21483,16 +21483,16 @@
         <v>24.58</v>
       </c>
       <c r="D321">
-        <v>6.292853089020914</v>
+        <v>8.36836023050696</v>
       </c>
       <c r="E321">
-        <v>56.73182528352137</v>
+        <v>33.01099329941769</v>
       </c>
       <c r="F321">
-        <v>1.100000000000001</v>
+        <v>1.861152988746354</v>
       </c>
       <c r="G321">
-        <v>1806.439870854473</v>
+        <v>2716.871694746425</v>
       </c>
       <c r="H321">
         <v>8.67013142204094</v>
@@ -21506,16 +21506,16 @@
         <v>27.41</v>
       </c>
       <c r="D322">
-        <v>37.99999999999999</v>
+        <v>12.20174460965778</v>
       </c>
       <c r="E322">
-        <v>34.64101615137756</v>
+        <v>10.60568659717629</v>
       </c>
       <c r="F322">
-        <v>10</v>
+        <v>9.393286842850172</v>
       </c>
       <c r="G322">
-        <v>2591.426202812561</v>
+        <v>1454.343936393614</v>
       </c>
       <c r="H322">
         <v>12.80416531106526</v>
@@ -21529,16 +21529,16 @@
         <v>50.26</v>
       </c>
       <c r="D323">
-        <v>26.49528259898356</v>
+        <v>15.89503890377705</v>
       </c>
       <c r="E323">
-        <v>13.41640786499874</v>
+        <v>23.46698142522762</v>
       </c>
       <c r="F323">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G323">
-        <v>27.35272719024177</v>
+        <v>21.61886415017576</v>
       </c>
       <c r="H323">
         <v>8.570441156096924</v>
@@ -21552,16 +21552,16 @@
         <v>52.38</v>
       </c>
       <c r="D324">
-        <v>24.65765601187591</v>
+        <v>22.39364048409455</v>
       </c>
       <c r="E324">
-        <v>17.65955831837253</v>
+        <v>66.10243613288415</v>
       </c>
       <c r="F324">
-        <v>9.194019795497493</v>
+        <v>16.77047153415298</v>
       </c>
       <c r="G324">
-        <v>26.67692770723245</v>
+        <v>47.56235531630897</v>
       </c>
       <c r="H324">
         <v>49.22873841545184</v>
@@ -21575,16 +21575,16 @@
         <v>59.06</v>
       </c>
       <c r="D325">
-        <v>31.86220331364418</v>
+        <v>12.26089608143647</v>
       </c>
       <c r="E325">
-        <v>16.64932431061391</v>
+        <v>12.65474198440004</v>
       </c>
       <c r="F325">
-        <v>3.628445763382971</v>
+        <v>10.46798087809892</v>
       </c>
       <c r="G325">
-        <v>47.65846642272032</v>
+        <v>49.32945344679041</v>
       </c>
       <c r="H325">
         <v>8.498038763197584</v>
@@ -21598,16 +21598,16 @@
         <v>20.22</v>
       </c>
       <c r="D326">
-        <v>9.499999999999996</v>
+        <v>16.30067487273502</v>
       </c>
       <c r="E326">
-        <v>59.20574296468212</v>
+        <v>25.71395035015508</v>
       </c>
       <c r="F326">
-        <v>120.0000000000001</v>
+        <v>25.78714768329416</v>
       </c>
       <c r="G326">
-        <v>1344.253148749769</v>
+        <v>1411.129347688692</v>
       </c>
       <c r="H326">
         <v>11.32371348240197</v>
@@ -21621,16 +21621,16 @@
         <v>34.02</v>
       </c>
       <c r="D327">
-        <v>947.5062005074176</v>
+        <v>1280.248700914517</v>
       </c>
       <c r="E327">
-        <v>801.7749060677824</v>
+        <v>855.5716111835424</v>
       </c>
       <c r="F327">
-        <v>134.3874994186586</v>
+        <v>353.7009431646609</v>
       </c>
       <c r="G327">
-        <v>16001.2324351413</v>
+        <v>11792.20110187052</v>
       </c>
       <c r="H327">
         <v>996.8633158999106</v>
@@ -21644,16 +21644,16 @@
         <v>39.66</v>
       </c>
       <c r="D328">
-        <v>10.07571337424801</v>
+        <v>9.962618118503558</v>
       </c>
       <c r="E328">
-        <v>8.370782520170986</v>
+        <v>8.737213367607211</v>
       </c>
       <c r="F328">
-        <v>17.46049604742133</v>
+        <v>12.12042859985513</v>
       </c>
       <c r="G328">
-        <v>12.25257208106195</v>
+        <v>14.89329227836613</v>
       </c>
       <c r="H328">
         <v>5.419034336387379</v>
@@ -21667,16 +21667,16 @@
         <v>43.49</v>
       </c>
       <c r="D329">
-        <v>3.019933774108301</v>
+        <v>3.741376488652182</v>
       </c>
       <c r="E329">
-        <v>1799.999999999998</v>
+        <v>218.0027761116156</v>
       </c>
       <c r="F329">
-        <v>26.99999999999998</v>
+        <v>20.17928705806437</v>
       </c>
       <c r="G329">
-        <v>6849.609129724434</v>
+        <v>7622.08170573775</v>
       </c>
       <c r="H329">
         <v>9.372061301150378</v>
@@ -21690,16 +21690,16 @@
         <v>26.56</v>
       </c>
       <c r="D330">
-        <v>269.3881957324779</v>
+        <v>461.0261763952973</v>
       </c>
       <c r="E330">
-        <v>2513.601400381531</v>
+        <v>939.5347336134813</v>
       </c>
       <c r="F330">
-        <v>824.699945434702</v>
+        <v>277.3440771786267</v>
       </c>
       <c r="G330">
-        <v>1862.461934548376</v>
+        <v>1608.759770003002</v>
       </c>
       <c r="H330">
         <v>230.1531557108001</v>
@@ -21713,16 +21713,16 @@
         <v>57.69</v>
       </c>
       <c r="D331">
-        <v>7.293833011524189</v>
+        <v>6.213159198521604</v>
       </c>
       <c r="E331">
-        <v>67.98823427623347</v>
+        <v>8.27337903943098</v>
       </c>
       <c r="F331">
-        <v>4.495553358597819</v>
+        <v>5.989537289832486</v>
       </c>
       <c r="G331">
-        <v>527.023261897137</v>
+        <v>701.3835680664826</v>
       </c>
       <c r="H331">
         <v>2.937599966418428</v>
@@ -21736,16 +21736,16 @@
         <v>50.61</v>
       </c>
       <c r="D332">
-        <v>6.900000000000006</v>
+        <v>7.718821783041822</v>
       </c>
       <c r="E332">
-        <v>7.412152184082558</v>
+        <v>14.07801634447614</v>
       </c>
       <c r="F332">
-        <v>5.7</v>
+        <v>6.176981500136862</v>
       </c>
       <c r="G332">
-        <v>312.9336791999627</v>
+        <v>342.9624300501745</v>
       </c>
       <c r="H332">
         <v>9.577028409053248</v>
@@ -21759,16 +21759,16 @@
         <v>55.61</v>
       </c>
       <c r="D333">
-        <v>2737.493196338578</v>
+        <v>697.1972275970558</v>
       </c>
       <c r="E333">
-        <v>698.9420576843271</v>
+        <v>1057.618867933832</v>
       </c>
       <c r="F333">
-        <v>865.072565083856</v>
+        <v>803.0063712974891</v>
       </c>
       <c r="G333">
-        <v>8348.741677981458</v>
+        <v>6999.610247744444</v>
       </c>
       <c r="H333">
         <v>449.4517867304418</v>
@@ -21782,16 +21782,16 @@
         <v>77.77</v>
       </c>
       <c r="D334">
-        <v>867.4675786448724</v>
+        <v>640.8649502390244</v>
       </c>
       <c r="E334">
-        <v>698.9420576843271</v>
+        <v>503.4267081012276</v>
       </c>
       <c r="F334">
-        <v>195.9591794226544</v>
+        <v>63.15649752925615</v>
       </c>
       <c r="G334">
-        <v>10448.94305147227</v>
+        <v>9415.565981319165</v>
       </c>
       <c r="H334">
         <v>438.6516855279663</v>
@@ -21805,16 +21805,16 @@
         <v>74.5</v>
       </c>
       <c r="D335">
-        <v>270.3701166919151</v>
+        <v>738.7590506844276</v>
       </c>
       <c r="E335">
-        <v>832.6824124478663</v>
+        <v>483.1521744644011</v>
       </c>
       <c r="F335">
-        <v>134.3874994186586</v>
+        <v>164.8735870019018</v>
       </c>
       <c r="G335">
-        <v>12511.23229700907</v>
+        <v>10571.47734075396</v>
       </c>
       <c r="H335">
         <v>45.51008108951471</v>
@@ -21828,16 +21828,16 @@
         <v>44.2</v>
       </c>
       <c r="D336">
-        <v>6.78232998312527</v>
+        <v>10.44919017302029</v>
       </c>
       <c r="E336">
-        <v>1799.999999999998</v>
+        <v>122.1599878112832</v>
       </c>
       <c r="F336">
-        <v>8.570104702584494</v>
+        <v>9.635175066679967</v>
       </c>
       <c r="G336">
-        <v>5021.483209890175</v>
+        <v>1952.664034935441</v>
       </c>
       <c r="H336">
         <v>24.30373361317524</v>
